--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FED4422-7D17-4F43-937B-F1786B4CAB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E255598-A9B8-4021-89FB-4DBFD36766C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D83103A-C8F4-427B-9B88-0AE118AC5B39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E0C6FD-B197-4352-A9E4-A83D5D81A5A5}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74373CC3-E22E-4B69-9E26-D30388817669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89078EA4-5E3B-4D1E-B8DA-1F7BA9A956EE}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.1999999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9C7DD0-F7C2-4284-957E-AE75D45D8BDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266B2532-53F2-4D09-A5FA-52F47562E9AE}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E255598-A9B8-4021-89FB-4DBFD36766C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDA324C-A6FB-4CA3-9014-D9010B9A8F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E0C6FD-B197-4352-A9E4-A83D5D81A5A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FAB5F2-8AAC-4CEC-AE58-E2E6AF866F51}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89078EA4-5E3B-4D1E-B8DA-1F7BA9A956EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22372F62-D9CB-4D76-BFA6-CAF77D700D9A}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266B2532-53F2-4D09-A5FA-52F47562E9AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD4FBBC-718E-40F7-9E66-2E2E080BD71E}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDA324C-A6FB-4CA3-9014-D9010B9A8F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C9FA2E-294E-4041-8B20-74690657E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
-    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
-    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>UC_N</t>
   </si>
@@ -78,6 +76,24 @@
     <t>day</t>
   </si>
   <si>
+    <t>daynight</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
+  </si>
+  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -277,60 +293,6 @@
   </si>
   <si>
     <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>com_fr</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>AllSaAllH</t>
-  </si>
-  <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
-    <t>elc_spv-DEU</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
-    <t>elc_won-DEU</t>
-  </si>
-  <si>
-    <t>g_yrfr</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>day_night</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>ncap_afs</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -823,14 +785,14 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="str">
         <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
-        <v>Not Required!</v>
+        <v>~UC_T: LO</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -844,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -859,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -867,21 +829,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>AllSaAllH</v>
+        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -899,21 +861,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>AllSaAllH</v>
+        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -925,26 +887,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -972,551 +934,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1526,243 +1488,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FAB5F2-8AAC-4CEC-AE58-E2E6AF866F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E747EE5-D9DF-4671-9490-A4942BD4FE59}">
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22372F62-D9CB-4D76-BFA6-CAF77D700D9A}">
-  <dimension ref="B2:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4">
-        <v>0.99999970000000005</v>
       </c>
       <c r="D4" t="s">
         <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
         <v>82</v>
-      </c>
-      <c r="I4">
-        <v>0.99999999999982481</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4">
-        <v>1.1999999999999997</v>
-      </c>
-      <c r="O4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD4FBBC-718E-40F7-9E66-2E2E080BD71E}">
-  <dimension ref="B2:O5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4">
-        <v>0.34111765552101359</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C9FA2E-294E-4041-8B20-74690657E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9F324-E007-4C4B-88A3-2FB395404C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1488,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E747EE5-D9DF-4671-9490-A4942BD4FE59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAFD949-3BDC-42EE-93CF-22DD4E9A6D01}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32FBFF99-8023-4CDF-B987-6B0A28F6F1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6F5233-B73F-48D4-9C46-D940E475B757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2502,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363C488A-1B0C-47ED-AE20-4A1EF0F2C273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B923E47C-0937-42DB-A5D1-8BDCCE592479}">
   <dimension ref="A9:AM199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2728,7 +2728,7 @@
         <v>22</v>
       </c>
       <c r="AL11">
-        <v>1.1999999999999997</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="AM11" t="s">
         <v>609</v>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6F5233-B73F-48D4-9C46-D940E475B757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6138C0-8EE9-44A9-978B-C2B6DA0D50C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="420">
   <si>
     <t>UC_N</t>
   </si>
@@ -546,9 +546,6 @@
     <t>elc_spv-DEU_0050</t>
   </si>
   <si>
-    <t>elc_spv-DEU_0051</t>
-  </si>
-  <si>
     <t>elc_spv-DEU_0052</t>
   </si>
   <si>
@@ -1270,573 +1267,6 @@
   </si>
   <si>
     <t>elc_won-DEU_0099</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0000</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0010</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0100</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0101</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0102</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0103</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0104</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0105</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0106</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0107</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0108</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0109</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0011</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0110</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0111</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0112</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0113</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0114</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0115</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0116</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0117</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0119</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0120</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0121</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0122</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0123</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0124</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0125</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0126</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0127</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0128</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0129</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0013</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0130</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0131</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0132</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0135</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0136</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0137</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0138</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0139</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0014</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0140</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0141</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0142</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0143</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0144</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0145</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0146</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0147</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0148</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0015</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0150</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0151</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0152</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0153</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0154</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0155</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0156</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0157</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0158</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0159</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0016</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0160</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0161</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0162</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0164</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0165</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0166</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0167</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0168</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0169</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0017</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0170</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0171</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0172</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0173</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0174</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0175</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0176</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0177</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0178</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0018</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0181</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0182</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0183</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0184</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0185</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0186</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0187</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0188</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0019</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0021</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0022</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0025</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0026</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0027</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0028</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0029</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0003</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0030</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0031</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0032</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0033</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0034</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0035</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0039</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0004</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0040</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0041</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0042</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0043</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0044</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0045</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0046</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0047</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0048</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0049</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0005</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0050</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0051</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0054</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0056</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0057</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0058</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0059</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0006</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0060</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0061</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0062</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0063</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0064</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0065</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0066</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0067</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0068</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0007</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0070</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0071</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0072</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0073</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0074</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0075</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0076</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0077</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0078</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0079</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0008</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0080</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0081</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0082</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0083</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0088</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0089</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0090</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0091</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0092</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0093</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0094</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0095</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0096</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0097</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0098</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0099</t>
   </si>
   <si>
     <t>g_yrfr</t>
@@ -2363,7 +1793,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>601</v>
+        <v>411</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -2372,7 +1802,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>602</v>
+        <v>412</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -2380,7 +1810,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>603</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -2502,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B923E47C-0937-42DB-A5D1-8BDCCE592479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E788BB4-1BD3-4C35-84C8-F345CCB3DB43}">
   <dimension ref="A9:AM199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2599,7 +2029,7 @@
         <v>29</v>
       </c>
       <c r="X10" t="s">
-        <v>599</v>
+        <v>409</v>
       </c>
       <c r="Y10" t="s">
         <v>28</v>
@@ -2626,16 +2056,16 @@
         <v>27</v>
       </c>
       <c r="AI10" t="s">
-        <v>606</v>
+        <v>416</v>
       </c>
       <c r="AK10" t="s">
         <v>27</v>
       </c>
       <c r="AL10" t="s">
-        <v>607</v>
+        <v>417</v>
       </c>
       <c r="AM10" t="s">
-        <v>608</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -2671,7 +2101,7 @@
         <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
@@ -2682,18 +2112,6 @@
       <c r="Q11" t="s">
         <v>32</v>
       </c>
-      <c r="S11" t="s">
-        <v>410</v>
-      </c>
-      <c r="T11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
-        <v>32</v>
-      </c>
       <c r="X11">
         <v>1</v>
       </c>
@@ -2704,10 +2122,10 @@
         <v>31</v>
       </c>
       <c r="AA11" t="s">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="AC11" t="s">
-        <v>604</v>
+        <v>414</v>
       </c>
       <c r="AD11" t="s">
         <v>31</v>
@@ -2728,10 +2146,10 @@
         <v>22</v>
       </c>
       <c r="AL11">
-        <v>1.2000000000000002</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="AM11" t="s">
-        <v>609</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
@@ -2748,7 +2166,7 @@
         <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O12" t="s">
         <v>31</v>
@@ -2759,20 +2177,8 @@
       <c r="Q12" t="s">
         <v>32</v>
       </c>
-      <c r="S12" t="s">
-        <v>411</v>
-      </c>
-      <c r="T12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12">
-        <v>0.99999999999983902</v>
-      </c>
-      <c r="V12" t="s">
-        <v>32</v>
-      </c>
       <c r="AC12" t="s">
-        <v>605</v>
+        <v>415</v>
       </c>
       <c r="AD12" t="s">
         <v>31</v>
@@ -2795,7 +2201,7 @@
         <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" t="s">
         <v>31</v>
@@ -2804,18 +2210,6 @@
         <v>0.99999999999981981</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" t="s">
-        <v>412</v>
-      </c>
-      <c r="T13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13">
-        <v>0.99999999999984879</v>
-      </c>
-      <c r="V13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2833,7 +2227,7 @@
         <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O14" t="s">
         <v>31</v>
@@ -2842,18 +2236,6 @@
         <v>0.99999999999980849</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" t="s">
-        <v>413</v>
-      </c>
-      <c r="T14" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2871,7 +2253,7 @@
         <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O15" t="s">
         <v>31</v>
@@ -2880,18 +2262,6 @@
         <v>0.99999999999980349</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" t="s">
-        <v>414</v>
-      </c>
-      <c r="T15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2909,7 +2279,7 @@
         <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O16" t="s">
         <v>31</v>
@@ -2920,20 +2290,8 @@
       <c r="Q16" t="s">
         <v>32</v>
       </c>
-      <c r="S16" t="s">
-        <v>415</v>
-      </c>
-      <c r="T16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
         <v>38</v>
       </c>
@@ -2947,7 +2305,7 @@
         <v>32</v>
       </c>
       <c r="N17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O17" t="s">
         <v>31</v>
@@ -2958,20 +2316,8 @@
       <c r="Q17" t="s">
         <v>32</v>
       </c>
-      <c r="S17" t="s">
-        <v>416</v>
-      </c>
-      <c r="T17" t="s">
-        <v>31</v>
-      </c>
-      <c r="U17">
-        <v>0.99999999999979927</v>
-      </c>
-      <c r="V17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
         <v>39</v>
       </c>
@@ -2985,7 +2331,7 @@
         <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O18" t="s">
         <v>31</v>
@@ -2996,20 +2342,8 @@
       <c r="Q18" t="s">
         <v>32</v>
       </c>
-      <c r="S18" t="s">
-        <v>417</v>
-      </c>
-      <c r="T18" t="s">
-        <v>31</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
         <v>40</v>
       </c>
@@ -3023,7 +2357,7 @@
         <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s">
         <v>31</v>
@@ -3034,20 +2368,8 @@
       <c r="Q19" t="s">
         <v>32</v>
       </c>
-      <c r="S19" t="s">
-        <v>418</v>
-      </c>
-      <c r="T19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
         <v>41</v>
       </c>
@@ -3061,7 +2383,7 @@
         <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O20" t="s">
         <v>31</v>
@@ -3072,20 +2394,8 @@
       <c r="Q20" t="s">
         <v>32</v>
       </c>
-      <c r="S20" t="s">
-        <v>419</v>
-      </c>
-      <c r="T20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
         <v>42</v>
       </c>
@@ -3099,7 +2409,7 @@
         <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O21" t="s">
         <v>31</v>
@@ -3110,20 +2420,8 @@
       <c r="Q21" t="s">
         <v>32</v>
       </c>
-      <c r="S21" t="s">
-        <v>420</v>
-      </c>
-      <c r="T21" t="s">
-        <v>31</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
         <v>43</v>
       </c>
@@ -3137,7 +2435,7 @@
         <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s">
         <v>31</v>
@@ -3148,20 +2446,8 @@
       <c r="Q22" t="s">
         <v>32</v>
       </c>
-      <c r="S22" t="s">
-        <v>421</v>
-      </c>
-      <c r="T22" t="s">
-        <v>31</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
         <v>44</v>
       </c>
@@ -3175,7 +2461,7 @@
         <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s">
         <v>31</v>
@@ -3186,20 +2472,8 @@
       <c r="Q23" t="s">
         <v>32</v>
       </c>
-      <c r="S23" t="s">
-        <v>422</v>
-      </c>
-      <c r="T23" t="s">
-        <v>31</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
         <v>45</v>
       </c>
@@ -3213,7 +2487,7 @@
         <v>32</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s">
         <v>31</v>
@@ -3224,20 +2498,8 @@
       <c r="Q24" t="s">
         <v>32</v>
       </c>
-      <c r="S24" t="s">
-        <v>423</v>
-      </c>
-      <c r="T24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24">
-        <v>0.99999999999981526</v>
-      </c>
-      <c r="V24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
         <v>46</v>
       </c>
@@ -3251,7 +2513,7 @@
         <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s">
         <v>31</v>
@@ -3262,20 +2524,8 @@
       <c r="Q25" t="s">
         <v>32</v>
       </c>
-      <c r="S25" t="s">
-        <v>424</v>
-      </c>
-      <c r="T25" t="s">
-        <v>31</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
         <v>47</v>
       </c>
@@ -3289,7 +2539,7 @@
         <v>32</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
         <v>31</v>
@@ -3300,20 +2550,8 @@
       <c r="Q26" t="s">
         <v>32</v>
       </c>
-      <c r="S26" t="s">
-        <v>425</v>
-      </c>
-      <c r="T26" t="s">
-        <v>31</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
         <v>48</v>
       </c>
@@ -3327,7 +2565,7 @@
         <v>32</v>
       </c>
       <c r="N27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s">
         <v>31</v>
@@ -3338,20 +2576,8 @@
       <c r="Q27" t="s">
         <v>32</v>
       </c>
-      <c r="S27" t="s">
-        <v>426</v>
-      </c>
-      <c r="T27" t="s">
-        <v>31</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
         <v>49</v>
       </c>
@@ -3365,7 +2591,7 @@
         <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O28" t="s">
         <v>31</v>
@@ -3376,20 +2602,8 @@
       <c r="Q28" t="s">
         <v>32</v>
       </c>
-      <c r="S28" t="s">
-        <v>427</v>
-      </c>
-      <c r="T28" t="s">
-        <v>31</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
         <v>50</v>
       </c>
@@ -3403,7 +2617,7 @@
         <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O29" t="s">
         <v>31</v>
@@ -3414,20 +2628,8 @@
       <c r="Q29" t="s">
         <v>32</v>
       </c>
-      <c r="S29" t="s">
-        <v>428</v>
-      </c>
-      <c r="T29" t="s">
-        <v>31</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
         <v>51</v>
       </c>
@@ -3441,7 +2643,7 @@
         <v>32</v>
       </c>
       <c r="N30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O30" t="s">
         <v>31</v>
@@ -3452,20 +2654,8 @@
       <c r="Q30" t="s">
         <v>32</v>
       </c>
-      <c r="S30" t="s">
-        <v>429</v>
-      </c>
-      <c r="T30" t="s">
-        <v>31</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>52</v>
       </c>
@@ -3479,7 +2669,7 @@
         <v>32</v>
       </c>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s">
         <v>31</v>
@@ -3490,20 +2680,8 @@
       <c r="Q31" t="s">
         <v>32</v>
       </c>
-      <c r="S31" t="s">
-        <v>430</v>
-      </c>
-      <c r="T31" t="s">
-        <v>31</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
         <v>53</v>
       </c>
@@ -3517,7 +2695,7 @@
         <v>32</v>
       </c>
       <c r="N32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O32" t="s">
         <v>31</v>
@@ -3528,20 +2706,8 @@
       <c r="Q32" t="s">
         <v>32</v>
       </c>
-      <c r="S32" t="s">
-        <v>431</v>
-      </c>
-      <c r="T32" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
         <v>54</v>
       </c>
@@ -3555,7 +2721,7 @@
         <v>32</v>
       </c>
       <c r="N33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O33" t="s">
         <v>31</v>
@@ -3566,20 +2732,8 @@
       <c r="Q33" t="s">
         <v>32</v>
       </c>
-      <c r="S33" t="s">
-        <v>432</v>
-      </c>
-      <c r="T33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U33">
-        <v>0.99999999999980727</v>
-      </c>
-      <c r="V33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
         <v>55</v>
       </c>
@@ -3593,7 +2747,7 @@
         <v>32</v>
       </c>
       <c r="N34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O34" t="s">
         <v>31</v>
@@ -3604,20 +2758,8 @@
       <c r="Q34" t="s">
         <v>32</v>
       </c>
-      <c r="S34" t="s">
-        <v>433</v>
-      </c>
-      <c r="T34" t="s">
-        <v>31</v>
-      </c>
-      <c r="U34">
-        <v>0.99999999999979006</v>
-      </c>
-      <c r="V34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
         <v>56</v>
       </c>
@@ -3631,7 +2773,7 @@
         <v>32</v>
       </c>
       <c r="N35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O35" t="s">
         <v>31</v>
@@ -3642,20 +2784,8 @@
       <c r="Q35" t="s">
         <v>32</v>
       </c>
-      <c r="S35" t="s">
-        <v>434</v>
-      </c>
-      <c r="T35" t="s">
-        <v>31</v>
-      </c>
-      <c r="U35">
-        <v>0.99999999999976497</v>
-      </c>
-      <c r="V35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
         <v>57</v>
       </c>
@@ -3669,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="N36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O36" t="s">
         <v>31</v>
@@ -3680,20 +2810,8 @@
       <c r="Q36" t="s">
         <v>32</v>
       </c>
-      <c r="S36" t="s">
-        <v>435</v>
-      </c>
-      <c r="T36" t="s">
-        <v>31</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
         <v>58</v>
       </c>
@@ -3707,7 +2825,7 @@
         <v>32</v>
       </c>
       <c r="N37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O37" t="s">
         <v>31</v>
@@ -3718,20 +2836,8 @@
       <c r="Q37" t="s">
         <v>32</v>
       </c>
-      <c r="S37" t="s">
-        <v>436</v>
-      </c>
-      <c r="T37" t="s">
-        <v>31</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
         <v>59</v>
       </c>
@@ -3745,7 +2851,7 @@
         <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O38" t="s">
         <v>31</v>
@@ -3756,20 +2862,8 @@
       <c r="Q38" t="s">
         <v>32</v>
       </c>
-      <c r="S38" t="s">
-        <v>437</v>
-      </c>
-      <c r="T38" t="s">
-        <v>31</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
         <v>60</v>
       </c>
@@ -3783,7 +2877,7 @@
         <v>32</v>
       </c>
       <c r="N39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O39" t="s">
         <v>31</v>
@@ -3794,20 +2888,8 @@
       <c r="Q39" t="s">
         <v>32</v>
       </c>
-      <c r="S39" t="s">
-        <v>438</v>
-      </c>
-      <c r="T39" t="s">
-        <v>31</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
         <v>61</v>
       </c>
@@ -3821,7 +2903,7 @@
         <v>32</v>
       </c>
       <c r="N40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O40" t="s">
         <v>31</v>
@@ -3832,20 +2914,8 @@
       <c r="Q40" t="s">
         <v>32</v>
       </c>
-      <c r="S40" t="s">
-        <v>439</v>
-      </c>
-      <c r="T40" t="s">
-        <v>31</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
         <v>62</v>
       </c>
@@ -3859,7 +2929,7 @@
         <v>32</v>
       </c>
       <c r="N41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O41" t="s">
         <v>31</v>
@@ -3870,20 +2940,8 @@
       <c r="Q41" t="s">
         <v>32</v>
       </c>
-      <c r="S41" t="s">
-        <v>440</v>
-      </c>
-      <c r="T41" t="s">
-        <v>31</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
         <v>63</v>
       </c>
@@ -3897,7 +2955,7 @@
         <v>32</v>
       </c>
       <c r="N42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O42" t="s">
         <v>31</v>
@@ -3908,20 +2966,8 @@
       <c r="Q42" t="s">
         <v>32</v>
       </c>
-      <c r="S42" t="s">
-        <v>441</v>
-      </c>
-      <c r="T42" t="s">
-        <v>31</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I43" t="s">
         <v>64</v>
       </c>
@@ -3935,7 +2981,7 @@
         <v>32</v>
       </c>
       <c r="N43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O43" t="s">
         <v>31</v>
@@ -3946,20 +2992,8 @@
       <c r="Q43" t="s">
         <v>32</v>
       </c>
-      <c r="S43" t="s">
-        <v>442</v>
-      </c>
-      <c r="T43" t="s">
-        <v>31</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I44" t="s">
         <v>65</v>
       </c>
@@ -3973,7 +3007,7 @@
         <v>32</v>
       </c>
       <c r="N44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O44" t="s">
         <v>31</v>
@@ -3984,20 +3018,8 @@
       <c r="Q44" t="s">
         <v>32</v>
       </c>
-      <c r="S44" t="s">
-        <v>443</v>
-      </c>
-      <c r="T44" t="s">
-        <v>31</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I45" t="s">
         <v>66</v>
       </c>
@@ -4011,7 +3033,7 @@
         <v>32</v>
       </c>
       <c r="N45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O45" t="s">
         <v>31</v>
@@ -4022,20 +3044,8 @@
       <c r="Q45" t="s">
         <v>32</v>
       </c>
-      <c r="S45" t="s">
-        <v>444</v>
-      </c>
-      <c r="T45" t="s">
-        <v>31</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
         <v>67</v>
       </c>
@@ -4049,7 +3059,7 @@
         <v>32</v>
       </c>
       <c r="N46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O46" t="s">
         <v>31</v>
@@ -4060,20 +3070,8 @@
       <c r="Q46" t="s">
         <v>32</v>
       </c>
-      <c r="S46" t="s">
-        <v>445</v>
-      </c>
-      <c r="T46" t="s">
-        <v>31</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I47" t="s">
         <v>68</v>
       </c>
@@ -4087,7 +3085,7 @@
         <v>32</v>
       </c>
       <c r="N47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O47" t="s">
         <v>31</v>
@@ -4098,20 +3096,8 @@
       <c r="Q47" t="s">
         <v>32</v>
       </c>
-      <c r="S47" t="s">
-        <v>446</v>
-      </c>
-      <c r="T47" t="s">
-        <v>31</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I48" t="s">
         <v>69</v>
       </c>
@@ -4125,7 +3111,7 @@
         <v>32</v>
       </c>
       <c r="N48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O48" t="s">
         <v>31</v>
@@ -4136,20 +3122,8 @@
       <c r="Q48" t="s">
         <v>32</v>
       </c>
-      <c r="S48" t="s">
-        <v>447</v>
-      </c>
-      <c r="T48" t="s">
-        <v>31</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I49" t="s">
         <v>70</v>
       </c>
@@ -4163,7 +3137,7 @@
         <v>32</v>
       </c>
       <c r="N49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O49" t="s">
         <v>31</v>
@@ -4174,20 +3148,8 @@
       <c r="Q49" t="s">
         <v>32</v>
       </c>
-      <c r="S49" t="s">
-        <v>448</v>
-      </c>
-      <c r="T49" t="s">
-        <v>31</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I50" t="s">
         <v>71</v>
       </c>
@@ -4201,7 +3163,7 @@
         <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O50" t="s">
         <v>31</v>
@@ -4212,20 +3174,8 @@
       <c r="Q50" t="s">
         <v>32</v>
       </c>
-      <c r="S50" t="s">
-        <v>449</v>
-      </c>
-      <c r="T50" t="s">
-        <v>31</v>
-      </c>
-      <c r="U50">
-        <v>0.99999999999981304</v>
-      </c>
-      <c r="V50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I51" t="s">
         <v>72</v>
       </c>
@@ -4239,7 +3189,7 @@
         <v>32</v>
       </c>
       <c r="N51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O51" t="s">
         <v>31</v>
@@ -4250,20 +3200,8 @@
       <c r="Q51" t="s">
         <v>32</v>
       </c>
-      <c r="S51" t="s">
-        <v>450</v>
-      </c>
-      <c r="T51" t="s">
-        <v>31</v>
-      </c>
-      <c r="U51">
-        <v>0.99999999999980649</v>
-      </c>
-      <c r="V51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I52" t="s">
         <v>73</v>
       </c>
@@ -4277,7 +3215,7 @@
         <v>32</v>
       </c>
       <c r="N52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O52" t="s">
         <v>31</v>
@@ -4288,20 +3226,8 @@
       <c r="Q52" t="s">
         <v>32</v>
       </c>
-      <c r="S52" t="s">
-        <v>451</v>
-      </c>
-      <c r="T52" t="s">
-        <v>31</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I53" t="s">
         <v>74</v>
       </c>
@@ -4315,7 +3241,7 @@
         <v>32</v>
       </c>
       <c r="N53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O53" t="s">
         <v>31</v>
@@ -4326,20 +3252,8 @@
       <c r="Q53" t="s">
         <v>32</v>
       </c>
-      <c r="S53" t="s">
-        <v>452</v>
-      </c>
-      <c r="T53" t="s">
-        <v>31</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I54" t="s">
         <v>75</v>
       </c>
@@ -4353,7 +3267,7 @@
         <v>32</v>
       </c>
       <c r="N54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O54" t="s">
         <v>31</v>
@@ -4364,20 +3278,8 @@
       <c r="Q54" t="s">
         <v>32</v>
       </c>
-      <c r="S54" t="s">
-        <v>453</v>
-      </c>
-      <c r="T54" t="s">
-        <v>31</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I55" t="s">
         <v>76</v>
       </c>
@@ -4391,7 +3293,7 @@
         <v>32</v>
       </c>
       <c r="N55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O55" t="s">
         <v>31</v>
@@ -4402,20 +3304,8 @@
       <c r="Q55" t="s">
         <v>32</v>
       </c>
-      <c r="S55" t="s">
-        <v>454</v>
-      </c>
-      <c r="T55" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I56" t="s">
         <v>77</v>
       </c>
@@ -4429,7 +3319,7 @@
         <v>32</v>
       </c>
       <c r="N56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O56" t="s">
         <v>31</v>
@@ -4440,20 +3330,8 @@
       <c r="Q56" t="s">
         <v>32</v>
       </c>
-      <c r="S56" t="s">
-        <v>455</v>
-      </c>
-      <c r="T56" t="s">
-        <v>31</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I57" t="s">
         <v>78</v>
       </c>
@@ -4467,7 +3345,7 @@
         <v>32</v>
       </c>
       <c r="N57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O57" t="s">
         <v>31</v>
@@ -4478,20 +3356,8 @@
       <c r="Q57" t="s">
         <v>32</v>
       </c>
-      <c r="S57" t="s">
-        <v>456</v>
-      </c>
-      <c r="T57" t="s">
-        <v>31</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I58" t="s">
         <v>79</v>
       </c>
@@ -4505,7 +3371,7 @@
         <v>32</v>
       </c>
       <c r="N58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O58" t="s">
         <v>31</v>
@@ -4516,20 +3382,8 @@
       <c r="Q58" t="s">
         <v>32</v>
       </c>
-      <c r="S58" t="s">
-        <v>457</v>
-      </c>
-      <c r="T58" t="s">
-        <v>31</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I59" t="s">
         <v>80</v>
       </c>
@@ -4543,7 +3397,7 @@
         <v>32</v>
       </c>
       <c r="N59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O59" t="s">
         <v>31</v>
@@ -4554,20 +3408,8 @@
       <c r="Q59" t="s">
         <v>32</v>
       </c>
-      <c r="S59" t="s">
-        <v>458</v>
-      </c>
-      <c r="T59" t="s">
-        <v>31</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I60" t="s">
         <v>81</v>
       </c>
@@ -4581,7 +3423,7 @@
         <v>32</v>
       </c>
       <c r="N60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O60" t="s">
         <v>31</v>
@@ -4592,20 +3434,8 @@
       <c r="Q60" t="s">
         <v>32</v>
       </c>
-      <c r="S60" t="s">
-        <v>459</v>
-      </c>
-      <c r="T60" t="s">
-        <v>31</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I61" t="s">
         <v>82</v>
       </c>
@@ -4619,7 +3449,7 @@
         <v>32</v>
       </c>
       <c r="N61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O61" t="s">
         <v>31</v>
@@ -4630,20 +3460,8 @@
       <c r="Q61" t="s">
         <v>32</v>
       </c>
-      <c r="S61" t="s">
-        <v>460</v>
-      </c>
-      <c r="T61" t="s">
-        <v>31</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I62" t="s">
         <v>83</v>
       </c>
@@ -4657,7 +3475,7 @@
         <v>32</v>
       </c>
       <c r="N62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O62" t="s">
         <v>31</v>
@@ -4668,20 +3486,8 @@
       <c r="Q62" t="s">
         <v>32</v>
       </c>
-      <c r="S62" t="s">
-        <v>461</v>
-      </c>
-      <c r="T62" t="s">
-        <v>31</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I63" t="s">
         <v>84</v>
       </c>
@@ -4695,7 +3501,7 @@
         <v>32</v>
       </c>
       <c r="N63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O63" t="s">
         <v>31</v>
@@ -4706,20 +3512,8 @@
       <c r="Q63" t="s">
         <v>32</v>
       </c>
-      <c r="S63" t="s">
-        <v>462</v>
-      </c>
-      <c r="T63" t="s">
-        <v>31</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I64" t="s">
         <v>85</v>
       </c>
@@ -4733,7 +3527,7 @@
         <v>32</v>
       </c>
       <c r="N64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O64" t="s">
         <v>31</v>
@@ -4744,20 +3538,8 @@
       <c r="Q64" t="s">
         <v>32</v>
       </c>
-      <c r="S64" t="s">
-        <v>463</v>
-      </c>
-      <c r="T64" t="s">
-        <v>31</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I65" t="s">
         <v>86</v>
       </c>
@@ -4771,7 +3553,7 @@
         <v>32</v>
       </c>
       <c r="N65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O65" t="s">
         <v>31</v>
@@ -4782,20 +3564,8 @@
       <c r="Q65" t="s">
         <v>32</v>
       </c>
-      <c r="S65" t="s">
-        <v>464</v>
-      </c>
-      <c r="T65" t="s">
-        <v>31</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I66" t="s">
         <v>87</v>
       </c>
@@ -4809,7 +3579,7 @@
         <v>32</v>
       </c>
       <c r="N66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O66" t="s">
         <v>31</v>
@@ -4820,20 +3590,8 @@
       <c r="Q66" t="s">
         <v>32</v>
       </c>
-      <c r="S66" t="s">
-        <v>465</v>
-      </c>
-      <c r="T66" t="s">
-        <v>31</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I67" t="s">
         <v>88</v>
       </c>
@@ -4847,7 +3605,7 @@
         <v>32</v>
       </c>
       <c r="N67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O67" t="s">
         <v>31</v>
@@ -4858,20 +3616,8 @@
       <c r="Q67" t="s">
         <v>32</v>
       </c>
-      <c r="S67" t="s">
-        <v>466</v>
-      </c>
-      <c r="T67" t="s">
-        <v>31</v>
-      </c>
-      <c r="U67">
-        <v>0.99999999999980005</v>
-      </c>
-      <c r="V67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="68" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I68" t="s">
         <v>89</v>
       </c>
@@ -4885,7 +3631,7 @@
         <v>32</v>
       </c>
       <c r="N68" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O68" t="s">
         <v>31</v>
@@ -4896,20 +3642,8 @@
       <c r="Q68" t="s">
         <v>32</v>
       </c>
-      <c r="S68" t="s">
-        <v>467</v>
-      </c>
-      <c r="T68" t="s">
-        <v>31</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="69" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I69" t="s">
         <v>90</v>
       </c>
@@ -4923,7 +3657,7 @@
         <v>32</v>
       </c>
       <c r="N69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O69" t="s">
         <v>31</v>
@@ -4934,20 +3668,8 @@
       <c r="Q69" t="s">
         <v>32</v>
       </c>
-      <c r="S69" t="s">
-        <v>468</v>
-      </c>
-      <c r="T69" t="s">
-        <v>31</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="70" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I70" t="s">
         <v>91</v>
       </c>
@@ -4961,7 +3683,7 @@
         <v>32</v>
       </c>
       <c r="N70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O70" t="s">
         <v>31</v>
@@ -4972,20 +3694,8 @@
       <c r="Q70" t="s">
         <v>32</v>
       </c>
-      <c r="S70" t="s">
-        <v>469</v>
-      </c>
-      <c r="T70" t="s">
-        <v>31</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="71" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I71" t="s">
         <v>92</v>
       </c>
@@ -4999,7 +3709,7 @@
         <v>32</v>
       </c>
       <c r="N71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O71" t="s">
         <v>31</v>
@@ -5010,20 +3720,8 @@
       <c r="Q71" t="s">
         <v>32</v>
       </c>
-      <c r="S71" t="s">
-        <v>470</v>
-      </c>
-      <c r="T71" t="s">
-        <v>31</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="72" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I72" t="s">
         <v>93</v>
       </c>
@@ -5037,7 +3735,7 @@
         <v>32</v>
       </c>
       <c r="N72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O72" t="s">
         <v>31</v>
@@ -5048,20 +3746,8 @@
       <c r="Q72" t="s">
         <v>32</v>
       </c>
-      <c r="S72" t="s">
-        <v>471</v>
-      </c>
-      <c r="T72" t="s">
-        <v>31</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I73" t="s">
         <v>94</v>
       </c>
@@ -5075,7 +3761,7 @@
         <v>32</v>
       </c>
       <c r="N73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O73" t="s">
         <v>31</v>
@@ -5086,20 +3772,8 @@
       <c r="Q73" t="s">
         <v>32</v>
       </c>
-      <c r="S73" t="s">
-        <v>472</v>
-      </c>
-      <c r="T73" t="s">
-        <v>31</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I74" t="s">
         <v>95</v>
       </c>
@@ -5113,7 +3787,7 @@
         <v>32</v>
       </c>
       <c r="N74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O74" t="s">
         <v>31</v>
@@ -5124,20 +3798,8 @@
       <c r="Q74" t="s">
         <v>32</v>
       </c>
-      <c r="S74" t="s">
-        <v>473</v>
-      </c>
-      <c r="T74" t="s">
-        <v>31</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="75" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I75" t="s">
         <v>96</v>
       </c>
@@ -5151,7 +3813,7 @@
         <v>32</v>
       </c>
       <c r="N75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O75" t="s">
         <v>31</v>
@@ -5162,20 +3824,8 @@
       <c r="Q75" t="s">
         <v>32</v>
       </c>
-      <c r="S75" t="s">
-        <v>474</v>
-      </c>
-      <c r="T75" t="s">
-        <v>31</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="76" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I76" t="s">
         <v>97</v>
       </c>
@@ -5189,7 +3839,7 @@
         <v>32</v>
       </c>
       <c r="N76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O76" t="s">
         <v>31</v>
@@ -5200,20 +3850,8 @@
       <c r="Q76" t="s">
         <v>32</v>
       </c>
-      <c r="S76" t="s">
-        <v>475</v>
-      </c>
-      <c r="T76" t="s">
-        <v>31</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="77" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I77" t="s">
         <v>98</v>
       </c>
@@ -5227,7 +3865,7 @@
         <v>32</v>
       </c>
       <c r="N77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O77" t="s">
         <v>31</v>
@@ -5238,20 +3876,8 @@
       <c r="Q77" t="s">
         <v>32</v>
       </c>
-      <c r="S77" t="s">
-        <v>476</v>
-      </c>
-      <c r="T77" t="s">
-        <v>31</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="78" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I78" t="s">
         <v>99</v>
       </c>
@@ -5265,7 +3891,7 @@
         <v>32</v>
       </c>
       <c r="N78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O78" t="s">
         <v>31</v>
@@ -5276,20 +3902,8 @@
       <c r="Q78" t="s">
         <v>32</v>
       </c>
-      <c r="S78" t="s">
-        <v>477</v>
-      </c>
-      <c r="T78" t="s">
-        <v>31</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="79" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I79" t="s">
         <v>100</v>
       </c>
@@ -5303,7 +3917,7 @@
         <v>32</v>
       </c>
       <c r="N79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O79" t="s">
         <v>31</v>
@@ -5314,20 +3928,8 @@
       <c r="Q79" t="s">
         <v>32</v>
       </c>
-      <c r="S79" t="s">
-        <v>478</v>
-      </c>
-      <c r="T79" t="s">
-        <v>31</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="80" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I80" t="s">
         <v>101</v>
       </c>
@@ -5341,7 +3943,7 @@
         <v>32</v>
       </c>
       <c r="N80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O80" t="s">
         <v>31</v>
@@ -5352,20 +3954,8 @@
       <c r="Q80" t="s">
         <v>32</v>
       </c>
-      <c r="S80" t="s">
-        <v>479</v>
-      </c>
-      <c r="T80" t="s">
-        <v>31</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I81" t="s">
         <v>102</v>
       </c>
@@ -5379,7 +3969,7 @@
         <v>32</v>
       </c>
       <c r="N81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O81" t="s">
         <v>31</v>
@@ -5390,20 +3980,8 @@
       <c r="Q81" t="s">
         <v>32</v>
       </c>
-      <c r="S81" t="s">
-        <v>480</v>
-      </c>
-      <c r="T81" t="s">
-        <v>31</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="82" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I82" t="s">
         <v>103</v>
       </c>
@@ -5417,7 +3995,7 @@
         <v>32</v>
       </c>
       <c r="N82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O82" t="s">
         <v>31</v>
@@ -5428,20 +4006,8 @@
       <c r="Q82" t="s">
         <v>32</v>
       </c>
-      <c r="S82" t="s">
-        <v>481</v>
-      </c>
-      <c r="T82" t="s">
-        <v>31</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I83" t="s">
         <v>104</v>
       </c>
@@ -5455,7 +4021,7 @@
         <v>32</v>
       </c>
       <c r="N83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O83" t="s">
         <v>31</v>
@@ -5466,20 +4032,8 @@
       <c r="Q83" t="s">
         <v>32</v>
       </c>
-      <c r="S83" t="s">
-        <v>482</v>
-      </c>
-      <c r="T83" t="s">
-        <v>31</v>
-      </c>
-      <c r="U83">
-        <v>0.99999999999975642</v>
-      </c>
-      <c r="V83" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I84" t="s">
         <v>105</v>
       </c>
@@ -5493,7 +4047,7 @@
         <v>32</v>
       </c>
       <c r="N84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O84" t="s">
         <v>31</v>
@@ -5504,20 +4058,8 @@
       <c r="Q84" t="s">
         <v>32</v>
       </c>
-      <c r="S84" t="s">
-        <v>483</v>
-      </c>
-      <c r="T84" t="s">
-        <v>31</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I85" t="s">
         <v>106</v>
       </c>
@@ -5531,7 +4073,7 @@
         <v>32</v>
       </c>
       <c r="N85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O85" t="s">
         <v>31</v>
@@ -5542,20 +4084,8 @@
       <c r="Q85" t="s">
         <v>32</v>
       </c>
-      <c r="S85" t="s">
-        <v>484</v>
-      </c>
-      <c r="T85" t="s">
-        <v>31</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I86" t="s">
         <v>107</v>
       </c>
@@ -5569,7 +4099,7 @@
         <v>32</v>
       </c>
       <c r="N86" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O86" t="s">
         <v>31</v>
@@ -5580,20 +4110,8 @@
       <c r="Q86" t="s">
         <v>32</v>
       </c>
-      <c r="S86" t="s">
-        <v>485</v>
-      </c>
-      <c r="T86" t="s">
-        <v>31</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I87" t="s">
         <v>108</v>
       </c>
@@ -5607,7 +4125,7 @@
         <v>32</v>
       </c>
       <c r="N87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O87" t="s">
         <v>31</v>
@@ -5618,20 +4136,8 @@
       <c r="Q87" t="s">
         <v>32</v>
       </c>
-      <c r="S87" t="s">
-        <v>486</v>
-      </c>
-      <c r="T87" t="s">
-        <v>31</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I88" t="s">
         <v>109</v>
       </c>
@@ -5645,7 +4151,7 @@
         <v>32</v>
       </c>
       <c r="N88" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O88" t="s">
         <v>31</v>
@@ -5656,20 +4162,8 @@
       <c r="Q88" t="s">
         <v>32</v>
       </c>
-      <c r="S88" t="s">
-        <v>487</v>
-      </c>
-      <c r="T88" t="s">
-        <v>31</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I89" t="s">
         <v>110</v>
       </c>
@@ -5683,7 +4177,7 @@
         <v>32</v>
       </c>
       <c r="N89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O89" t="s">
         <v>31</v>
@@ -5694,20 +4188,8 @@
       <c r="Q89" t="s">
         <v>32</v>
       </c>
-      <c r="S89" t="s">
-        <v>488</v>
-      </c>
-      <c r="T89" t="s">
-        <v>31</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I90" t="s">
         <v>111</v>
       </c>
@@ -5721,7 +4203,7 @@
         <v>32</v>
       </c>
       <c r="N90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O90" t="s">
         <v>31</v>
@@ -5732,20 +4214,8 @@
       <c r="Q90" t="s">
         <v>32</v>
       </c>
-      <c r="S90" t="s">
-        <v>489</v>
-      </c>
-      <c r="T90" t="s">
-        <v>31</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I91" t="s">
         <v>112</v>
       </c>
@@ -5759,7 +4229,7 @@
         <v>32</v>
       </c>
       <c r="N91" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O91" t="s">
         <v>31</v>
@@ -5770,20 +4240,8 @@
       <c r="Q91" t="s">
         <v>32</v>
       </c>
-      <c r="S91" t="s">
-        <v>490</v>
-      </c>
-      <c r="T91" t="s">
-        <v>31</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I92" t="s">
         <v>113</v>
       </c>
@@ -5797,7 +4255,7 @@
         <v>32</v>
       </c>
       <c r="N92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O92" t="s">
         <v>31</v>
@@ -5808,20 +4266,8 @@
       <c r="Q92" t="s">
         <v>32</v>
       </c>
-      <c r="S92" t="s">
-        <v>491</v>
-      </c>
-      <c r="T92" t="s">
-        <v>31</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I93" t="s">
         <v>114</v>
       </c>
@@ -5835,7 +4281,7 @@
         <v>32</v>
       </c>
       <c r="N93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O93" t="s">
         <v>31</v>
@@ -5846,20 +4292,8 @@
       <c r="Q93" t="s">
         <v>32</v>
       </c>
-      <c r="S93" t="s">
-        <v>492</v>
-      </c>
-      <c r="T93" t="s">
-        <v>31</v>
-      </c>
-      <c r="U93">
-        <v>0.99999999999980649</v>
-      </c>
-      <c r="V93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="94" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I94" t="s">
         <v>115</v>
       </c>
@@ -5873,7 +4307,7 @@
         <v>32</v>
       </c>
       <c r="N94" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O94" t="s">
         <v>31</v>
@@ -5884,20 +4318,8 @@
       <c r="Q94" t="s">
         <v>32</v>
       </c>
-      <c r="S94" t="s">
-        <v>493</v>
-      </c>
-      <c r="T94" t="s">
-        <v>31</v>
-      </c>
-      <c r="U94">
-        <v>0.99999999999984301</v>
-      </c>
-      <c r="V94" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="95" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I95" t="s">
         <v>116</v>
       </c>
@@ -5911,7 +4333,7 @@
         <v>32</v>
       </c>
       <c r="N95" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O95" t="s">
         <v>31</v>
@@ -5922,20 +4344,8 @@
       <c r="Q95" t="s">
         <v>32</v>
       </c>
-      <c r="S95" t="s">
-        <v>494</v>
-      </c>
-      <c r="T95" t="s">
-        <v>31</v>
-      </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="V95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="96" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I96" t="s">
         <v>117</v>
       </c>
@@ -5949,7 +4359,7 @@
         <v>32</v>
       </c>
       <c r="N96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O96" t="s">
         <v>31</v>
@@ -5960,20 +4370,8 @@
       <c r="Q96" t="s">
         <v>32</v>
       </c>
-      <c r="S96" t="s">
-        <v>495</v>
-      </c>
-      <c r="T96" t="s">
-        <v>31</v>
-      </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-      <c r="V96" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I97" t="s">
         <v>118</v>
       </c>
@@ -5987,7 +4385,7 @@
         <v>32</v>
       </c>
       <c r="N97" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O97" t="s">
         <v>31</v>
@@ -5998,20 +4396,8 @@
       <c r="Q97" t="s">
         <v>32</v>
       </c>
-      <c r="S97" t="s">
-        <v>496</v>
-      </c>
-      <c r="T97" t="s">
-        <v>31</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I98" t="s">
         <v>119</v>
       </c>
@@ -6025,7 +4411,7 @@
         <v>32</v>
       </c>
       <c r="N98" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O98" t="s">
         <v>31</v>
@@ -6036,20 +4422,8 @@
       <c r="Q98" t="s">
         <v>32</v>
       </c>
-      <c r="S98" t="s">
-        <v>497</v>
-      </c>
-      <c r="T98" t="s">
-        <v>31</v>
-      </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-      <c r="V98" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I99" t="s">
         <v>120</v>
       </c>
@@ -6063,7 +4437,7 @@
         <v>32</v>
       </c>
       <c r="N99" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O99" t="s">
         <v>31</v>
@@ -6074,20 +4448,8 @@
       <c r="Q99" t="s">
         <v>32</v>
       </c>
-      <c r="S99" t="s">
-        <v>498</v>
-      </c>
-      <c r="T99" t="s">
-        <v>31</v>
-      </c>
-      <c r="U99">
-        <v>0.99999999999982259</v>
-      </c>
-      <c r="V99" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I100" t="s">
         <v>121</v>
       </c>
@@ -6101,7 +4463,7 @@
         <v>32</v>
       </c>
       <c r="N100" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O100" t="s">
         <v>31</v>
@@ -6112,20 +4474,8 @@
       <c r="Q100" t="s">
         <v>32</v>
       </c>
-      <c r="S100" t="s">
-        <v>499</v>
-      </c>
-      <c r="T100" t="s">
-        <v>31</v>
-      </c>
-      <c r="U100">
-        <v>0.99999999999981948</v>
-      </c>
-      <c r="V100" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="101" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I101" t="s">
         <v>122</v>
       </c>
@@ -6139,7 +4489,7 @@
         <v>32</v>
       </c>
       <c r="N101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O101" t="s">
         <v>31</v>
@@ -6150,20 +4500,8 @@
       <c r="Q101" t="s">
         <v>32</v>
       </c>
-      <c r="S101" t="s">
-        <v>500</v>
-      </c>
-      <c r="T101" t="s">
-        <v>31</v>
-      </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
-      <c r="V101" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="102" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I102" t="s">
         <v>123</v>
       </c>
@@ -6177,7 +4515,7 @@
         <v>32</v>
       </c>
       <c r="N102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O102" t="s">
         <v>31</v>
@@ -6188,20 +4526,8 @@
       <c r="Q102" t="s">
         <v>32</v>
       </c>
-      <c r="S102" t="s">
-        <v>501</v>
-      </c>
-      <c r="T102" t="s">
-        <v>31</v>
-      </c>
-      <c r="U102">
-        <v>0.99999999999969946</v>
-      </c>
-      <c r="V102" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="103" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="103" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I103" t="s">
         <v>124</v>
       </c>
@@ -6215,7 +4541,7 @@
         <v>32</v>
       </c>
       <c r="N103" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O103" t="s">
         <v>31</v>
@@ -6226,20 +4552,8 @@
       <c r="Q103" t="s">
         <v>32</v>
       </c>
-      <c r="S103" t="s">
-        <v>502</v>
-      </c>
-      <c r="T103" t="s">
-        <v>31</v>
-      </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
-      <c r="V103" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="104" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="104" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I104" t="s">
         <v>125</v>
       </c>
@@ -6253,7 +4567,7 @@
         <v>32</v>
       </c>
       <c r="N104" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O104" t="s">
         <v>31</v>
@@ -6264,20 +4578,8 @@
       <c r="Q104" t="s">
         <v>32</v>
       </c>
-      <c r="S104" t="s">
-        <v>503</v>
-      </c>
-      <c r="T104" t="s">
-        <v>31</v>
-      </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-      <c r="V104" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="105" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I105" t="s">
         <v>126</v>
       </c>
@@ -6291,7 +4593,7 @@
         <v>32</v>
       </c>
       <c r="N105" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O105" t="s">
         <v>31</v>
@@ -6302,20 +4604,8 @@
       <c r="Q105" t="s">
         <v>32</v>
       </c>
-      <c r="S105" t="s">
-        <v>504</v>
-      </c>
-      <c r="T105" t="s">
-        <v>31</v>
-      </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
-      <c r="V105" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="106" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I106" t="s">
         <v>127</v>
       </c>
@@ -6329,7 +4619,7 @@
         <v>32</v>
       </c>
       <c r="N106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O106" t="s">
         <v>31</v>
@@ -6340,20 +4630,8 @@
       <c r="Q106" t="s">
         <v>32</v>
       </c>
-      <c r="S106" t="s">
-        <v>505</v>
-      </c>
-      <c r="T106" t="s">
-        <v>31</v>
-      </c>
-      <c r="U106">
-        <v>0</v>
-      </c>
-      <c r="V106" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="107" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="107" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I107" t="s">
         <v>128</v>
       </c>
@@ -6367,7 +4645,7 @@
         <v>32</v>
       </c>
       <c r="N107" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O107" t="s">
         <v>31</v>
@@ -6378,20 +4656,8 @@
       <c r="Q107" t="s">
         <v>32</v>
       </c>
-      <c r="S107" t="s">
-        <v>506</v>
-      </c>
-      <c r="T107" t="s">
-        <v>31</v>
-      </c>
-      <c r="U107">
-        <v>0</v>
-      </c>
-      <c r="V107" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="108" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I108" t="s">
         <v>129</v>
       </c>
@@ -6405,7 +4671,7 @@
         <v>32</v>
       </c>
       <c r="N108" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O108" t="s">
         <v>31</v>
@@ -6416,20 +4682,8 @@
       <c r="Q108" t="s">
         <v>32</v>
       </c>
-      <c r="S108" t="s">
-        <v>507</v>
-      </c>
-      <c r="T108" t="s">
-        <v>31</v>
-      </c>
-      <c r="U108">
-        <v>0</v>
-      </c>
-      <c r="V108" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="109" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I109" t="s">
         <v>130</v>
       </c>
@@ -6443,7 +4697,7 @@
         <v>32</v>
       </c>
       <c r="N109" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O109" t="s">
         <v>31</v>
@@ -6454,20 +4708,8 @@
       <c r="Q109" t="s">
         <v>32</v>
       </c>
-      <c r="S109" t="s">
-        <v>508</v>
-      </c>
-      <c r="T109" t="s">
-        <v>31</v>
-      </c>
-      <c r="U109">
-        <v>0</v>
-      </c>
-      <c r="V109" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="110" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I110" t="s">
         <v>131</v>
       </c>
@@ -6481,7 +4723,7 @@
         <v>32</v>
       </c>
       <c r="N110" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O110" t="s">
         <v>31</v>
@@ -6492,20 +4734,8 @@
       <c r="Q110" t="s">
         <v>32</v>
       </c>
-      <c r="S110" t="s">
-        <v>509</v>
-      </c>
-      <c r="T110" t="s">
-        <v>31</v>
-      </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
-      <c r="V110" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="111" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I111" t="s">
         <v>132</v>
       </c>
@@ -6519,7 +4749,7 @@
         <v>32</v>
       </c>
       <c r="N111" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O111" t="s">
         <v>31</v>
@@ -6530,20 +4760,8 @@
       <c r="Q111" t="s">
         <v>32</v>
       </c>
-      <c r="S111" t="s">
-        <v>510</v>
-      </c>
-      <c r="T111" t="s">
-        <v>31</v>
-      </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
-      <c r="V111" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="112" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I112" t="s">
         <v>133</v>
       </c>
@@ -6557,7 +4775,7 @@
         <v>32</v>
       </c>
       <c r="N112" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O112" t="s">
         <v>31</v>
@@ -6568,20 +4786,8 @@
       <c r="Q112" t="s">
         <v>32</v>
       </c>
-      <c r="S112" t="s">
-        <v>511</v>
-      </c>
-      <c r="T112" t="s">
-        <v>31</v>
-      </c>
-      <c r="U112">
-        <v>0.99999999999967348</v>
-      </c>
-      <c r="V112" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="113" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I113" t="s">
         <v>134</v>
       </c>
@@ -6595,7 +4801,7 @@
         <v>32</v>
       </c>
       <c r="N113" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O113" t="s">
         <v>31</v>
@@ -6606,20 +4812,8 @@
       <c r="Q113" t="s">
         <v>32</v>
       </c>
-      <c r="S113" t="s">
-        <v>512</v>
-      </c>
-      <c r="T113" t="s">
-        <v>31</v>
-      </c>
-      <c r="U113">
-        <v>0.99999999999980438</v>
-      </c>
-      <c r="V113" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="114" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I114" t="s">
         <v>135</v>
       </c>
@@ -6633,7 +4827,7 @@
         <v>32</v>
       </c>
       <c r="N114" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O114" t="s">
         <v>31</v>
@@ -6644,20 +4838,8 @@
       <c r="Q114" t="s">
         <v>32</v>
       </c>
-      <c r="S114" t="s">
-        <v>513</v>
-      </c>
-      <c r="T114" t="s">
-        <v>31</v>
-      </c>
-      <c r="U114">
-        <v>0.99999999999978795</v>
-      </c>
-      <c r="V114" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="115" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I115" t="s">
         <v>136</v>
       </c>
@@ -6671,7 +4853,7 @@
         <v>32</v>
       </c>
       <c r="N115" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O115" t="s">
         <v>31</v>
@@ -6682,20 +4864,8 @@
       <c r="Q115" t="s">
         <v>32</v>
       </c>
-      <c r="S115" t="s">
-        <v>514</v>
-      </c>
-      <c r="T115" t="s">
-        <v>31</v>
-      </c>
-      <c r="U115">
-        <v>0.99999999999970235</v>
-      </c>
-      <c r="V115" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="116" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I116" t="s">
         <v>137</v>
       </c>
@@ -6709,7 +4879,7 @@
         <v>32</v>
       </c>
       <c r="N116" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O116" t="s">
         <v>31</v>
@@ -6720,20 +4890,8 @@
       <c r="Q116" t="s">
         <v>32</v>
       </c>
-      <c r="S116" t="s">
-        <v>515</v>
-      </c>
-      <c r="T116" t="s">
-        <v>31</v>
-      </c>
-      <c r="U116">
-        <v>0.99999999999983968</v>
-      </c>
-      <c r="V116" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="117" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I117" t="s">
         <v>138</v>
       </c>
@@ -6747,7 +4905,7 @@
         <v>32</v>
       </c>
       <c r="N117" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O117" t="s">
         <v>31</v>
@@ -6758,20 +4916,8 @@
       <c r="Q117" t="s">
         <v>32</v>
       </c>
-      <c r="S117" t="s">
-        <v>516</v>
-      </c>
-      <c r="T117" t="s">
-        <v>31</v>
-      </c>
-      <c r="U117">
-        <v>0.99999999999977118</v>
-      </c>
-      <c r="V117" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="118" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I118" t="s">
         <v>139</v>
       </c>
@@ -6785,7 +4931,7 @@
         <v>32</v>
       </c>
       <c r="N118" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O118" t="s">
         <v>31</v>
@@ -6796,20 +4942,8 @@
       <c r="Q118" t="s">
         <v>32</v>
       </c>
-      <c r="S118" t="s">
-        <v>517</v>
-      </c>
-      <c r="T118" t="s">
-        <v>31</v>
-      </c>
-      <c r="U118">
-        <v>0</v>
-      </c>
-      <c r="V118" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="119" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I119" t="s">
         <v>140</v>
       </c>
@@ -6823,7 +4957,7 @@
         <v>32</v>
       </c>
       <c r="N119" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O119" t="s">
         <v>31</v>
@@ -6834,20 +4968,8 @@
       <c r="Q119" t="s">
         <v>32</v>
       </c>
-      <c r="S119" t="s">
-        <v>518</v>
-      </c>
-      <c r="T119" t="s">
-        <v>31</v>
-      </c>
-      <c r="U119">
-        <v>0</v>
-      </c>
-      <c r="V119" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="120" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I120" t="s">
         <v>141</v>
       </c>
@@ -6861,7 +4983,7 @@
         <v>32</v>
       </c>
       <c r="N120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O120" t="s">
         <v>31</v>
@@ -6872,20 +4994,8 @@
       <c r="Q120" t="s">
         <v>32</v>
       </c>
-      <c r="S120" t="s">
-        <v>519</v>
-      </c>
-      <c r="T120" t="s">
-        <v>31</v>
-      </c>
-      <c r="U120">
-        <v>0</v>
-      </c>
-      <c r="V120" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="121" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I121" t="s">
         <v>142</v>
       </c>
@@ -6899,7 +5009,7 @@
         <v>32</v>
       </c>
       <c r="N121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O121" t="s">
         <v>31</v>
@@ -6910,20 +5020,8 @@
       <c r="Q121" t="s">
         <v>32</v>
       </c>
-      <c r="S121" t="s">
-        <v>520</v>
-      </c>
-      <c r="T121" t="s">
-        <v>31</v>
-      </c>
-      <c r="U121">
-        <v>0</v>
-      </c>
-      <c r="V121" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="122" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I122" t="s">
         <v>143</v>
       </c>
@@ -6937,7 +5035,7 @@
         <v>32</v>
       </c>
       <c r="N122" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O122" t="s">
         <v>31</v>
@@ -6948,20 +5046,8 @@
       <c r="Q122" t="s">
         <v>32</v>
       </c>
-      <c r="S122" t="s">
-        <v>521</v>
-      </c>
-      <c r="T122" t="s">
-        <v>31</v>
-      </c>
-      <c r="U122">
-        <v>0</v>
-      </c>
-      <c r="V122" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="123" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="123" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I123" t="s">
         <v>144</v>
       </c>
@@ -6975,7 +5061,7 @@
         <v>32</v>
       </c>
       <c r="N123" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O123" t="s">
         <v>31</v>
@@ -6986,20 +5072,8 @@
       <c r="Q123" t="s">
         <v>32</v>
       </c>
-      <c r="S123" t="s">
-        <v>522</v>
-      </c>
-      <c r="T123" t="s">
-        <v>31</v>
-      </c>
-      <c r="U123">
-        <v>0.99999999999979095</v>
-      </c>
-      <c r="V123" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="124" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I124" t="s">
         <v>145</v>
       </c>
@@ -7013,7 +5087,7 @@
         <v>32</v>
       </c>
       <c r="N124" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O124" t="s">
         <v>31</v>
@@ -7024,20 +5098,8 @@
       <c r="Q124" t="s">
         <v>32</v>
       </c>
-      <c r="S124" t="s">
-        <v>523</v>
-      </c>
-      <c r="T124" t="s">
-        <v>31</v>
-      </c>
-      <c r="U124">
-        <v>0</v>
-      </c>
-      <c r="V124" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="125" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I125" t="s">
         <v>146</v>
       </c>
@@ -7051,7 +5113,7 @@
         <v>32</v>
       </c>
       <c r="N125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O125" t="s">
         <v>31</v>
@@ -7062,20 +5124,8 @@
       <c r="Q125" t="s">
         <v>32</v>
       </c>
-      <c r="S125" t="s">
-        <v>524</v>
-      </c>
-      <c r="T125" t="s">
-        <v>31</v>
-      </c>
-      <c r="U125">
-        <v>0</v>
-      </c>
-      <c r="V125" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="126" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I126" t="s">
         <v>147</v>
       </c>
@@ -7089,7 +5139,7 @@
         <v>32</v>
       </c>
       <c r="N126" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O126" t="s">
         <v>31</v>
@@ -7100,20 +5150,8 @@
       <c r="Q126" t="s">
         <v>32</v>
       </c>
-      <c r="S126" t="s">
-        <v>525</v>
-      </c>
-      <c r="T126" t="s">
-        <v>31</v>
-      </c>
-      <c r="U126">
-        <v>0</v>
-      </c>
-      <c r="V126" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="127" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I127" t="s">
         <v>148</v>
       </c>
@@ -7127,7 +5165,7 @@
         <v>32</v>
       </c>
       <c r="N127" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O127" t="s">
         <v>31</v>
@@ -7138,20 +5176,8 @@
       <c r="Q127" t="s">
         <v>32</v>
       </c>
-      <c r="S127" t="s">
-        <v>526</v>
-      </c>
-      <c r="T127" t="s">
-        <v>31</v>
-      </c>
-      <c r="U127">
-        <v>0</v>
-      </c>
-      <c r="V127" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="128" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="128" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I128" t="s">
         <v>149</v>
       </c>
@@ -7165,7 +5191,7 @@
         <v>32</v>
       </c>
       <c r="N128" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O128" t="s">
         <v>31</v>
@@ -7176,20 +5202,8 @@
       <c r="Q128" t="s">
         <v>32</v>
       </c>
-      <c r="S128" t="s">
-        <v>527</v>
-      </c>
-      <c r="T128" t="s">
-        <v>31</v>
-      </c>
-      <c r="U128">
-        <v>0</v>
-      </c>
-      <c r="V128" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="129" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="129" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I129" t="s">
         <v>150</v>
       </c>
@@ -7203,7 +5217,7 @@
         <v>32</v>
       </c>
       <c r="N129" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O129" t="s">
         <v>31</v>
@@ -7214,20 +5228,8 @@
       <c r="Q129" t="s">
         <v>32</v>
       </c>
-      <c r="S129" t="s">
-        <v>528</v>
-      </c>
-      <c r="T129" t="s">
-        <v>31</v>
-      </c>
-      <c r="U129">
-        <v>0</v>
-      </c>
-      <c r="V129" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="130" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I130" t="s">
         <v>151</v>
       </c>
@@ -7241,7 +5243,7 @@
         <v>32</v>
       </c>
       <c r="N130" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O130" t="s">
         <v>31</v>
@@ -7252,20 +5254,8 @@
       <c r="Q130" t="s">
         <v>32</v>
       </c>
-      <c r="S130" t="s">
-        <v>529</v>
-      </c>
-      <c r="T130" t="s">
-        <v>31</v>
-      </c>
-      <c r="U130">
-        <v>0.99999999999980105</v>
-      </c>
-      <c r="V130" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="131" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="131" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I131" t="s">
         <v>152</v>
       </c>
@@ -7279,7 +5269,7 @@
         <v>32</v>
       </c>
       <c r="N131" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O131" t="s">
         <v>31</v>
@@ -7290,20 +5280,8 @@
       <c r="Q131" t="s">
         <v>32</v>
       </c>
-      <c r="S131" t="s">
-        <v>530</v>
-      </c>
-      <c r="T131" t="s">
-        <v>31</v>
-      </c>
-      <c r="U131">
-        <v>0.999999999999716</v>
-      </c>
-      <c r="V131" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="132" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="132" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I132" t="s">
         <v>153</v>
       </c>
@@ -7317,7 +5295,7 @@
         <v>32</v>
       </c>
       <c r="N132" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O132" t="s">
         <v>31</v>
@@ -7328,20 +5306,8 @@
       <c r="Q132" t="s">
         <v>32</v>
       </c>
-      <c r="S132" t="s">
-        <v>531</v>
-      </c>
-      <c r="T132" t="s">
-        <v>31</v>
-      </c>
-      <c r="U132">
-        <v>0.99999999999984379</v>
-      </c>
-      <c r="V132" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="133" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="133" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I133" t="s">
         <v>154</v>
       </c>
@@ -7355,7 +5321,7 @@
         <v>32</v>
       </c>
       <c r="N133" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O133" t="s">
         <v>31</v>
@@ -7366,20 +5332,8 @@
       <c r="Q133" t="s">
         <v>32</v>
       </c>
-      <c r="S133" t="s">
-        <v>532</v>
-      </c>
-      <c r="T133" t="s">
-        <v>31</v>
-      </c>
-      <c r="U133">
-        <v>0.99999999999985256</v>
-      </c>
-      <c r="V133" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="134" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="134" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I134" t="s">
         <v>155</v>
       </c>
@@ -7393,7 +5347,7 @@
         <v>32</v>
       </c>
       <c r="N134" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O134" t="s">
         <v>31</v>
@@ -7404,20 +5358,8 @@
       <c r="Q134" t="s">
         <v>32</v>
       </c>
-      <c r="S134" t="s">
-        <v>533</v>
-      </c>
-      <c r="T134" t="s">
-        <v>31</v>
-      </c>
-      <c r="U134">
-        <v>0.999999999999864</v>
-      </c>
-      <c r="V134" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="135" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="135" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I135" t="s">
         <v>156</v>
       </c>
@@ -7431,7 +5373,7 @@
         <v>32</v>
       </c>
       <c r="N135" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O135" t="s">
         <v>31</v>
@@ -7442,20 +5384,8 @@
       <c r="Q135" t="s">
         <v>32</v>
       </c>
-      <c r="S135" t="s">
-        <v>534</v>
-      </c>
-      <c r="T135" t="s">
-        <v>31</v>
-      </c>
-      <c r="U135">
-        <v>0</v>
-      </c>
-      <c r="V135" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="136" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I136" t="s">
         <v>157</v>
       </c>
@@ -7469,7 +5399,7 @@
         <v>32</v>
       </c>
       <c r="N136" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O136" t="s">
         <v>31</v>
@@ -7480,20 +5410,8 @@
       <c r="Q136" t="s">
         <v>32</v>
       </c>
-      <c r="S136" t="s">
-        <v>535</v>
-      </c>
-      <c r="T136" t="s">
-        <v>31</v>
-      </c>
-      <c r="U136">
-        <v>0</v>
-      </c>
-      <c r="V136" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="137" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I137" t="s">
         <v>158</v>
       </c>
@@ -7507,7 +5425,7 @@
         <v>32</v>
       </c>
       <c r="N137" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O137" t="s">
         <v>31</v>
@@ -7518,20 +5436,8 @@
       <c r="Q137" t="s">
         <v>32</v>
       </c>
-      <c r="S137" t="s">
-        <v>536</v>
-      </c>
-      <c r="T137" t="s">
-        <v>31</v>
-      </c>
-      <c r="U137">
-        <v>0</v>
-      </c>
-      <c r="V137" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="138" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="138" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I138" t="s">
         <v>159</v>
       </c>
@@ -7545,7 +5451,7 @@
         <v>32</v>
       </c>
       <c r="N138" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O138" t="s">
         <v>31</v>
@@ -7556,20 +5462,8 @@
       <c r="Q138" t="s">
         <v>32</v>
       </c>
-      <c r="S138" t="s">
-        <v>537</v>
-      </c>
-      <c r="T138" t="s">
-        <v>31</v>
-      </c>
-      <c r="U138">
-        <v>0</v>
-      </c>
-      <c r="V138" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="139" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="139" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I139" t="s">
         <v>160</v>
       </c>
@@ -7583,7 +5477,7 @@
         <v>32</v>
       </c>
       <c r="N139" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O139" t="s">
         <v>31</v>
@@ -7594,20 +5488,8 @@
       <c r="Q139" t="s">
         <v>32</v>
       </c>
-      <c r="S139" t="s">
-        <v>538</v>
-      </c>
-      <c r="T139" t="s">
-        <v>31</v>
-      </c>
-      <c r="U139">
-        <v>0</v>
-      </c>
-      <c r="V139" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="140" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="140" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I140" t="s">
         <v>161</v>
       </c>
@@ -7621,7 +5503,7 @@
         <v>32</v>
       </c>
       <c r="N140" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O140" t="s">
         <v>31</v>
@@ -7632,20 +5514,8 @@
       <c r="Q140" t="s">
         <v>32</v>
       </c>
-      <c r="S140" t="s">
-        <v>539</v>
-      </c>
-      <c r="T140" t="s">
-        <v>31</v>
-      </c>
-      <c r="U140">
-        <v>0</v>
-      </c>
-      <c r="V140" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="141" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I141" t="s">
         <v>162</v>
       </c>
@@ -7659,7 +5529,7 @@
         <v>32</v>
       </c>
       <c r="N141" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O141" t="s">
         <v>31</v>
@@ -7670,20 +5540,8 @@
       <c r="Q141" t="s">
         <v>32</v>
       </c>
-      <c r="S141" t="s">
-        <v>540</v>
-      </c>
-      <c r="T141" t="s">
-        <v>31</v>
-      </c>
-      <c r="U141">
-        <v>0</v>
-      </c>
-      <c r="V141" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="142" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="142" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I142" t="s">
         <v>163</v>
       </c>
@@ -7697,7 +5555,7 @@
         <v>32</v>
       </c>
       <c r="N142" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O142" t="s">
         <v>31</v>
@@ -7708,20 +5566,8 @@
       <c r="Q142" t="s">
         <v>32</v>
       </c>
-      <c r="S142" t="s">
-        <v>541</v>
-      </c>
-      <c r="T142" t="s">
-        <v>31</v>
-      </c>
-      <c r="U142">
-        <v>0</v>
-      </c>
-      <c r="V142" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="143" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="143" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I143" t="s">
         <v>164</v>
       </c>
@@ -7735,7 +5581,7 @@
         <v>32</v>
       </c>
       <c r="N143" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O143" t="s">
         <v>31</v>
@@ -7746,20 +5592,8 @@
       <c r="Q143" t="s">
         <v>32</v>
       </c>
-      <c r="S143" t="s">
-        <v>542</v>
-      </c>
-      <c r="T143" t="s">
-        <v>31</v>
-      </c>
-      <c r="U143">
-        <v>0</v>
-      </c>
-      <c r="V143" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="144" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="144" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I144" t="s">
         <v>165</v>
       </c>
@@ -7773,7 +5607,7 @@
         <v>32</v>
       </c>
       <c r="N144" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O144" t="s">
         <v>31</v>
@@ -7784,20 +5618,8 @@
       <c r="Q144" t="s">
         <v>32</v>
       </c>
-      <c r="S144" t="s">
-        <v>543</v>
-      </c>
-      <c r="T144" t="s">
-        <v>31</v>
-      </c>
-      <c r="U144">
-        <v>0</v>
-      </c>
-      <c r="V144" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="145" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="145" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I145" t="s">
         <v>166</v>
       </c>
@@ -7811,7 +5633,7 @@
         <v>32</v>
       </c>
       <c r="N145" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O145" t="s">
         <v>31</v>
@@ -7822,20 +5644,8 @@
       <c r="Q145" t="s">
         <v>32</v>
       </c>
-      <c r="S145" t="s">
-        <v>544</v>
-      </c>
-      <c r="T145" t="s">
-        <v>31</v>
-      </c>
-      <c r="U145">
-        <v>0</v>
-      </c>
-      <c r="V145" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="146" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="146" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I146" t="s">
         <v>167</v>
       </c>
@@ -7849,7 +5659,7 @@
         <v>32</v>
       </c>
       <c r="N146" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O146" t="s">
         <v>31</v>
@@ -7860,20 +5670,8 @@
       <c r="Q146" t="s">
         <v>32</v>
       </c>
-      <c r="S146" t="s">
-        <v>545</v>
-      </c>
-      <c r="T146" t="s">
-        <v>31</v>
-      </c>
-      <c r="U146">
-        <v>0</v>
-      </c>
-      <c r="V146" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="147" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="147" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I147" t="s">
         <v>168</v>
       </c>
@@ -7881,13 +5679,13 @@
         <v>31</v>
       </c>
       <c r="K147">
-        <v>0.99999999999984202</v>
+        <v>0.99999999999984612</v>
       </c>
       <c r="L147" t="s">
         <v>32</v>
       </c>
       <c r="N147" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O147" t="s">
         <v>31</v>
@@ -7898,20 +5696,8 @@
       <c r="Q147" t="s">
         <v>32</v>
       </c>
-      <c r="S147" t="s">
-        <v>546</v>
-      </c>
-      <c r="T147" t="s">
-        <v>31</v>
-      </c>
-      <c r="U147">
-        <v>0</v>
-      </c>
-      <c r="V147" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="148" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="148" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I148" t="s">
         <v>169</v>
       </c>
@@ -7919,13 +5705,13 @@
         <v>31</v>
       </c>
       <c r="K148">
-        <v>0.99999999999984612</v>
+        <v>0.99999999999984168</v>
       </c>
       <c r="L148" t="s">
         <v>32</v>
       </c>
       <c r="N148" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O148" t="s">
         <v>31</v>
@@ -7936,20 +5722,8 @@
       <c r="Q148" t="s">
         <v>32</v>
       </c>
-      <c r="S148" t="s">
-        <v>547</v>
-      </c>
-      <c r="T148" t="s">
-        <v>31</v>
-      </c>
-      <c r="U148">
-        <v>0.99999999999981837</v>
-      </c>
-      <c r="V148" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="149" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="149" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I149" t="s">
         <v>170</v>
       </c>
@@ -7957,13 +5731,13 @@
         <v>31</v>
       </c>
       <c r="K149">
-        <v>0.99999999999984168</v>
+        <v>0.99999999999983669</v>
       </c>
       <c r="L149" t="s">
         <v>32</v>
       </c>
       <c r="N149" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O149" t="s">
         <v>31</v>
@@ -7974,20 +5748,8 @@
       <c r="Q149" t="s">
         <v>32</v>
       </c>
-      <c r="S149" t="s">
-        <v>548</v>
-      </c>
-      <c r="T149" t="s">
-        <v>31</v>
-      </c>
-      <c r="U149">
-        <v>0.99999999999980704</v>
-      </c>
-      <c r="V149" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="150" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I150" t="s">
         <v>171</v>
       </c>
@@ -7995,13 +5757,13 @@
         <v>31</v>
       </c>
       <c r="K150">
-        <v>0.99999999999983669</v>
+        <v>0.99999999999983891</v>
       </c>
       <c r="L150" t="s">
         <v>32</v>
       </c>
       <c r="N150" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O150" t="s">
         <v>31</v>
@@ -8012,20 +5774,8 @@
       <c r="Q150" t="s">
         <v>32</v>
       </c>
-      <c r="S150" t="s">
-        <v>549</v>
-      </c>
-      <c r="T150" t="s">
-        <v>31</v>
-      </c>
-      <c r="U150">
-        <v>0.9999999999997996</v>
-      </c>
-      <c r="V150" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="151" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="151" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I151" t="s">
         <v>172</v>
       </c>
@@ -8033,13 +5783,13 @@
         <v>31</v>
       </c>
       <c r="K151">
-        <v>0.99999999999983891</v>
+        <v>0.99999999999984257</v>
       </c>
       <c r="L151" t="s">
         <v>32</v>
       </c>
       <c r="N151" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O151" t="s">
         <v>31</v>
@@ -8050,20 +5800,8 @@
       <c r="Q151" t="s">
         <v>32</v>
       </c>
-      <c r="S151" t="s">
-        <v>550</v>
-      </c>
-      <c r="T151" t="s">
-        <v>31</v>
-      </c>
-      <c r="U151">
-        <v>0.99999999999985567</v>
-      </c>
-      <c r="V151" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="152" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="152" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I152" t="s">
         <v>173</v>
       </c>
@@ -8071,13 +5809,13 @@
         <v>31</v>
       </c>
       <c r="K152">
-        <v>0.99999999999984257</v>
+        <v>0.99999999999984579</v>
       </c>
       <c r="L152" t="s">
         <v>32</v>
       </c>
       <c r="N152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O152" t="s">
         <v>31</v>
@@ -8088,20 +5826,8 @@
       <c r="Q152" t="s">
         <v>32</v>
       </c>
-      <c r="S152" t="s">
-        <v>551</v>
-      </c>
-      <c r="T152" t="s">
-        <v>31</v>
-      </c>
-      <c r="U152">
-        <v>0</v>
-      </c>
-      <c r="V152" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="153" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="153" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I153" t="s">
         <v>174</v>
       </c>
@@ -8109,13 +5835,13 @@
         <v>31</v>
       </c>
       <c r="K153">
-        <v>0.99999999999984579</v>
+        <v>0.99999999999984457</v>
       </c>
       <c r="L153" t="s">
         <v>32</v>
       </c>
       <c r="N153" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O153" t="s">
         <v>31</v>
@@ -8126,20 +5852,8 @@
       <c r="Q153" t="s">
         <v>32</v>
       </c>
-      <c r="S153" t="s">
-        <v>552</v>
-      </c>
-      <c r="T153" t="s">
-        <v>31</v>
-      </c>
-      <c r="U153">
-        <v>0</v>
-      </c>
-      <c r="V153" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="154" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="154" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I154" t="s">
         <v>175</v>
       </c>
@@ -8147,13 +5861,13 @@
         <v>31</v>
       </c>
       <c r="K154">
-        <v>0.99999999999984457</v>
+        <v>0.9999999999998419</v>
       </c>
       <c r="L154" t="s">
         <v>32</v>
       </c>
       <c r="N154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O154" t="s">
         <v>31</v>
@@ -8164,20 +5878,8 @@
       <c r="Q154" t="s">
         <v>32</v>
       </c>
-      <c r="S154" t="s">
-        <v>553</v>
-      </c>
-      <c r="T154" t="s">
-        <v>31</v>
-      </c>
-      <c r="U154">
-        <v>0</v>
-      </c>
-      <c r="V154" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="155" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="155" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I155" t="s">
         <v>176</v>
       </c>
@@ -8185,13 +5887,13 @@
         <v>31</v>
       </c>
       <c r="K155">
-        <v>0.9999999999998419</v>
+        <v>0.99999999999984157</v>
       </c>
       <c r="L155" t="s">
         <v>32</v>
       </c>
       <c r="N155" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O155" t="s">
         <v>31</v>
@@ -8202,20 +5904,8 @@
       <c r="Q155" t="s">
         <v>32</v>
       </c>
-      <c r="S155" t="s">
-        <v>554</v>
-      </c>
-      <c r="T155" t="s">
-        <v>31</v>
-      </c>
-      <c r="U155">
-        <v>0</v>
-      </c>
-      <c r="V155" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="156" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="156" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I156" t="s">
         <v>177</v>
       </c>
@@ -8223,13 +5913,13 @@
         <v>31</v>
       </c>
       <c r="K156">
-        <v>0.99999999999984157</v>
+        <v>0.99999999999985012</v>
       </c>
       <c r="L156" t="s">
         <v>32</v>
       </c>
       <c r="N156" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O156" t="s">
         <v>31</v>
@@ -8240,20 +5930,8 @@
       <c r="Q156" t="s">
         <v>32</v>
       </c>
-      <c r="S156" t="s">
-        <v>555</v>
-      </c>
-      <c r="T156" t="s">
-        <v>31</v>
-      </c>
-      <c r="U156">
-        <v>0</v>
-      </c>
-      <c r="V156" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="157" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="157" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I157" t="s">
         <v>178</v>
       </c>
@@ -8261,13 +5939,13 @@
         <v>31</v>
       </c>
       <c r="K157">
-        <v>0.99999999999985012</v>
+        <v>0.99999999999984557</v>
       </c>
       <c r="L157" t="s">
         <v>32</v>
       </c>
       <c r="N157" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O157" t="s">
         <v>31</v>
@@ -8278,20 +5956,8 @@
       <c r="Q157" t="s">
         <v>32</v>
       </c>
-      <c r="S157" t="s">
-        <v>556</v>
-      </c>
-      <c r="T157" t="s">
-        <v>31</v>
-      </c>
-      <c r="U157">
-        <v>0</v>
-      </c>
-      <c r="V157" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="158" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="158" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I158" t="s">
         <v>179</v>
       </c>
@@ -8299,13 +5965,13 @@
         <v>31</v>
       </c>
       <c r="K158">
-        <v>0.99999999999984557</v>
+        <v>0.9999999999998489</v>
       </c>
       <c r="L158" t="s">
         <v>32</v>
       </c>
       <c r="N158" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O158" t="s">
         <v>31</v>
@@ -8316,20 +5982,8 @@
       <c r="Q158" t="s">
         <v>32</v>
       </c>
-      <c r="S158" t="s">
-        <v>557</v>
-      </c>
-      <c r="T158" t="s">
-        <v>31</v>
-      </c>
-      <c r="U158">
-        <v>0</v>
-      </c>
-      <c r="V158" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="159" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="159" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I159" t="s">
         <v>180</v>
       </c>
@@ -8337,13 +5991,13 @@
         <v>31</v>
       </c>
       <c r="K159">
-        <v>0.9999999999998489</v>
+        <v>0.99999999999984746</v>
       </c>
       <c r="L159" t="s">
         <v>32</v>
       </c>
       <c r="N159" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O159" t="s">
         <v>31</v>
@@ -8354,20 +6008,8 @@
       <c r="Q159" t="s">
         <v>32</v>
       </c>
-      <c r="S159" t="s">
-        <v>558</v>
-      </c>
-      <c r="T159" t="s">
-        <v>31</v>
-      </c>
-      <c r="U159">
-        <v>0</v>
-      </c>
-      <c r="V159" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="160" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="160" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I160" t="s">
         <v>181</v>
       </c>
@@ -8375,13 +6017,13 @@
         <v>31</v>
       </c>
       <c r="K160">
-        <v>0.99999999999984746</v>
+        <v>0.99999999999984968</v>
       </c>
       <c r="L160" t="s">
         <v>32</v>
       </c>
       <c r="N160" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O160" t="s">
         <v>31</v>
@@ -8392,20 +6034,8 @@
       <c r="Q160" t="s">
         <v>32</v>
       </c>
-      <c r="S160" t="s">
-        <v>559</v>
-      </c>
-      <c r="T160" t="s">
-        <v>31</v>
-      </c>
-      <c r="U160">
-        <v>0</v>
-      </c>
-      <c r="V160" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="161" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="161" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I161" t="s">
         <v>182</v>
       </c>
@@ -8413,13 +6043,13 @@
         <v>31</v>
       </c>
       <c r="K161">
-        <v>0.99999999999984968</v>
+        <v>0.99999999999985123</v>
       </c>
       <c r="L161" t="s">
         <v>32</v>
       </c>
       <c r="N161" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O161" t="s">
         <v>31</v>
@@ -8430,20 +6060,8 @@
       <c r="Q161" t="s">
         <v>32</v>
       </c>
-      <c r="S161" t="s">
-        <v>560</v>
-      </c>
-      <c r="T161" t="s">
-        <v>31</v>
-      </c>
-      <c r="U161">
-        <v>0</v>
-      </c>
-      <c r="V161" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="162" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="162" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I162" t="s">
         <v>183</v>
       </c>
@@ -8451,13 +6069,13 @@
         <v>31</v>
       </c>
       <c r="K162">
-        <v>0.99999999999985123</v>
+        <v>0.99999999999985101</v>
       </c>
       <c r="L162" t="s">
         <v>32</v>
       </c>
       <c r="N162" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O162" t="s">
         <v>31</v>
@@ -8468,20 +6086,8 @@
       <c r="Q162" t="s">
         <v>32</v>
       </c>
-      <c r="S162" t="s">
-        <v>561</v>
-      </c>
-      <c r="T162" t="s">
-        <v>31</v>
-      </c>
-      <c r="U162">
-        <v>0</v>
-      </c>
-      <c r="V162" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="163" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="163" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I163" t="s">
         <v>184</v>
       </c>
@@ -8489,13 +6095,13 @@
         <v>31</v>
       </c>
       <c r="K163">
-        <v>0.99999999999985101</v>
+        <v>0.99999999999984879</v>
       </c>
       <c r="L163" t="s">
         <v>32</v>
       </c>
       <c r="N163" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O163" t="s">
         <v>31</v>
@@ -8506,20 +6112,8 @@
       <c r="Q163" t="s">
         <v>32</v>
       </c>
-      <c r="S163" t="s">
-        <v>562</v>
-      </c>
-      <c r="T163" t="s">
-        <v>31</v>
-      </c>
-      <c r="U163">
-        <v>0</v>
-      </c>
-      <c r="V163" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="164" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="164" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I164" t="s">
         <v>185</v>
       </c>
@@ -8527,13 +6121,13 @@
         <v>31</v>
       </c>
       <c r="K164">
-        <v>0.99999999999984879</v>
+        <v>0.99999999999984723</v>
       </c>
       <c r="L164" t="s">
         <v>32</v>
       </c>
       <c r="N164" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O164" t="s">
         <v>31</v>
@@ -8544,20 +6138,8 @@
       <c r="Q164" t="s">
         <v>32</v>
       </c>
-      <c r="S164" t="s">
-        <v>563</v>
-      </c>
-      <c r="T164" t="s">
-        <v>31</v>
-      </c>
-      <c r="U164">
-        <v>0</v>
-      </c>
-      <c r="V164" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="165" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I165" t="s">
         <v>186</v>
       </c>
@@ -8565,13 +6147,13 @@
         <v>31</v>
       </c>
       <c r="K165">
-        <v>0.99999999999984723</v>
+        <v>0.99999999999984468</v>
       </c>
       <c r="L165" t="s">
         <v>32</v>
       </c>
       <c r="N165" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O165" t="s">
         <v>31</v>
@@ -8582,20 +6164,8 @@
       <c r="Q165" t="s">
         <v>32</v>
       </c>
-      <c r="S165" t="s">
-        <v>564</v>
-      </c>
-      <c r="T165" t="s">
-        <v>31</v>
-      </c>
-      <c r="U165">
-        <v>0</v>
-      </c>
-      <c r="V165" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="166" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="166" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I166" t="s">
         <v>187</v>
       </c>
@@ -8603,13 +6173,13 @@
         <v>31</v>
       </c>
       <c r="K166">
-        <v>0.99999999999984468</v>
+        <v>0.99999999999984401</v>
       </c>
       <c r="L166" t="s">
         <v>32</v>
       </c>
       <c r="N166" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O166" t="s">
         <v>31</v>
@@ -8620,20 +6190,8 @@
       <c r="Q166" t="s">
         <v>32</v>
       </c>
-      <c r="S166" t="s">
-        <v>565</v>
-      </c>
-      <c r="T166" t="s">
-        <v>31</v>
-      </c>
-      <c r="U166">
-        <v>0.99999999999980738</v>
-      </c>
-      <c r="V166" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="167" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="167" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I167" t="s">
         <v>188</v>
       </c>
@@ -8641,13 +6199,13 @@
         <v>31</v>
       </c>
       <c r="K167">
-        <v>0.99999999999984401</v>
+        <v>0.99999999999984346</v>
       </c>
       <c r="L167" t="s">
         <v>32</v>
       </c>
       <c r="N167" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O167" t="s">
         <v>31</v>
@@ -8658,20 +6216,8 @@
       <c r="Q167" t="s">
         <v>32</v>
       </c>
-      <c r="S167" t="s">
-        <v>566</v>
-      </c>
-      <c r="T167" t="s">
-        <v>31</v>
-      </c>
-      <c r="U167">
-        <v>0</v>
-      </c>
-      <c r="V167" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="168" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="168" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I168" t="s">
         <v>189</v>
       </c>
@@ -8679,13 +6225,13 @@
         <v>31</v>
       </c>
       <c r="K168">
-        <v>0.99999999999984346</v>
+        <v>0.99999999999983924</v>
       </c>
       <c r="L168" t="s">
         <v>32</v>
       </c>
       <c r="N168" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O168" t="s">
         <v>31</v>
@@ -8696,20 +6242,8 @@
       <c r="Q168" t="s">
         <v>32</v>
       </c>
-      <c r="S168" t="s">
-        <v>567</v>
-      </c>
-      <c r="T168" t="s">
-        <v>31</v>
-      </c>
-      <c r="U168">
-        <v>0</v>
-      </c>
-      <c r="V168" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="169" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="169" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I169" t="s">
         <v>190</v>
       </c>
@@ -8717,13 +6251,13 @@
         <v>31</v>
       </c>
       <c r="K169">
-        <v>0.99999999999983924</v>
+        <v>0.99999999999984102</v>
       </c>
       <c r="L169" t="s">
         <v>32</v>
       </c>
       <c r="N169" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O169" t="s">
         <v>31</v>
@@ -8734,20 +6268,8 @@
       <c r="Q169" t="s">
         <v>32</v>
       </c>
-      <c r="S169" t="s">
-        <v>568</v>
-      </c>
-      <c r="T169" t="s">
-        <v>31</v>
-      </c>
-      <c r="U169">
-        <v>0</v>
-      </c>
-      <c r="V169" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="170" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="170" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I170" t="s">
         <v>191</v>
       </c>
@@ -8755,13 +6277,13 @@
         <v>31</v>
       </c>
       <c r="K170">
-        <v>0.99999999999984102</v>
+        <v>0.9999999999998429</v>
       </c>
       <c r="L170" t="s">
         <v>32</v>
       </c>
       <c r="N170" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O170" t="s">
         <v>31</v>
@@ -8772,20 +6294,8 @@
       <c r="Q170" t="s">
         <v>32</v>
       </c>
-      <c r="S170" t="s">
-        <v>569</v>
-      </c>
-      <c r="T170" t="s">
-        <v>31</v>
-      </c>
-      <c r="U170">
-        <v>0</v>
-      </c>
-      <c r="V170" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="171" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="171" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I171" t="s">
         <v>192</v>
       </c>
@@ -8793,13 +6303,13 @@
         <v>31</v>
       </c>
       <c r="K171">
-        <v>0.9999999999998429</v>
+        <v>0.99999999999984457</v>
       </c>
       <c r="L171" t="s">
         <v>32</v>
       </c>
       <c r="N171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O171" t="s">
         <v>31</v>
@@ -8810,20 +6320,8 @@
       <c r="Q171" t="s">
         <v>32</v>
       </c>
-      <c r="S171" t="s">
-        <v>570</v>
-      </c>
-      <c r="T171" t="s">
-        <v>31</v>
-      </c>
-      <c r="U171">
-        <v>0</v>
-      </c>
-      <c r="V171" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="172" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="172" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I172" t="s">
         <v>193</v>
       </c>
@@ -8831,13 +6329,13 @@
         <v>31</v>
       </c>
       <c r="K172">
-        <v>0.99999999999984457</v>
+        <v>0.99999999999984801</v>
       </c>
       <c r="L172" t="s">
         <v>32</v>
       </c>
       <c r="N172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O172" t="s">
         <v>31</v>
@@ -8848,20 +6346,8 @@
       <c r="Q172" t="s">
         <v>32</v>
       </c>
-      <c r="S172" t="s">
-        <v>571</v>
-      </c>
-      <c r="T172" t="s">
-        <v>31</v>
-      </c>
-      <c r="U172">
-        <v>0</v>
-      </c>
-      <c r="V172" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="173" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="173" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I173" t="s">
         <v>194</v>
       </c>
@@ -8869,13 +6355,13 @@
         <v>31</v>
       </c>
       <c r="K173">
-        <v>0.99999999999984801</v>
+        <v>0.99999999999984335</v>
       </c>
       <c r="L173" t="s">
         <v>32</v>
       </c>
       <c r="N173" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O173" t="s">
         <v>31</v>
@@ -8886,20 +6372,8 @@
       <c r="Q173" t="s">
         <v>32</v>
       </c>
-      <c r="S173" t="s">
-        <v>572</v>
-      </c>
-      <c r="T173" t="s">
-        <v>31</v>
-      </c>
-      <c r="U173">
-        <v>0</v>
-      </c>
-      <c r="V173" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="174" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="174" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I174" t="s">
         <v>195</v>
       </c>
@@ -8907,13 +6381,13 @@
         <v>31</v>
       </c>
       <c r="K174">
-        <v>0.99999999999984335</v>
+        <v>0.99999999999984812</v>
       </c>
       <c r="L174" t="s">
         <v>32</v>
       </c>
       <c r="N174" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O174" t="s">
         <v>31</v>
@@ -8924,20 +6398,8 @@
       <c r="Q174" t="s">
         <v>32</v>
       </c>
-      <c r="S174" t="s">
-        <v>573</v>
-      </c>
-      <c r="T174" t="s">
-        <v>31</v>
-      </c>
-      <c r="U174">
-        <v>0</v>
-      </c>
-      <c r="V174" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="175" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="175" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I175" t="s">
         <v>196</v>
       </c>
@@ -8945,13 +6407,13 @@
         <v>31</v>
       </c>
       <c r="K175">
-        <v>0.99999999999984812</v>
+        <v>0.99999999999984601</v>
       </c>
       <c r="L175" t="s">
         <v>32</v>
       </c>
       <c r="N175" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O175" t="s">
         <v>31</v>
@@ -8962,20 +6424,8 @@
       <c r="Q175" t="s">
         <v>32</v>
       </c>
-      <c r="S175" t="s">
-        <v>574</v>
-      </c>
-      <c r="T175" t="s">
-        <v>31</v>
-      </c>
-      <c r="U175">
-        <v>0</v>
-      </c>
-      <c r="V175" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="176" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="176" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I176" t="s">
         <v>197</v>
       </c>
@@ -8983,13 +6433,13 @@
         <v>31</v>
       </c>
       <c r="K176">
-        <v>0.99999999999984601</v>
+        <v>0.99999999999984812</v>
       </c>
       <c r="L176" t="s">
         <v>32</v>
       </c>
       <c r="N176" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O176" t="s">
         <v>31</v>
@@ -9000,20 +6450,8 @@
       <c r="Q176" t="s">
         <v>32</v>
       </c>
-      <c r="S176" t="s">
-        <v>575</v>
-      </c>
-      <c r="T176" t="s">
-        <v>31</v>
-      </c>
-      <c r="U176">
-        <v>0</v>
-      </c>
-      <c r="V176" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="177" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="177" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I177" t="s">
         <v>198</v>
       </c>
@@ -9021,13 +6459,13 @@
         <v>31</v>
       </c>
       <c r="K177">
-        <v>0.99999999999984812</v>
+        <v>0.99999999999984457</v>
       </c>
       <c r="L177" t="s">
         <v>32</v>
       </c>
       <c r="N177" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O177" t="s">
         <v>31</v>
@@ -9038,20 +6476,8 @@
       <c r="Q177" t="s">
         <v>32</v>
       </c>
-      <c r="S177" t="s">
-        <v>576</v>
-      </c>
-      <c r="T177" t="s">
-        <v>31</v>
-      </c>
-      <c r="U177">
-        <v>0</v>
-      </c>
-      <c r="V177" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="178" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="178" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I178" t="s">
         <v>199</v>
       </c>
@@ -9059,13 +6485,13 @@
         <v>31</v>
       </c>
       <c r="K178">
-        <v>0.99999999999984457</v>
+        <v>0.99999999999985212</v>
       </c>
       <c r="L178" t="s">
         <v>32</v>
       </c>
       <c r="N178" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O178" t="s">
         <v>31</v>
@@ -9076,20 +6502,8 @@
       <c r="Q178" t="s">
         <v>32</v>
       </c>
-      <c r="S178" t="s">
-        <v>577</v>
-      </c>
-      <c r="T178" t="s">
-        <v>31</v>
-      </c>
-      <c r="U178">
-        <v>0</v>
-      </c>
-      <c r="V178" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="179" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="179" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I179" t="s">
         <v>200</v>
       </c>
@@ -9097,13 +6511,13 @@
         <v>31</v>
       </c>
       <c r="K179">
-        <v>0.99999999999985212</v>
+        <v>0.99999999999984668</v>
       </c>
       <c r="L179" t="s">
         <v>32</v>
       </c>
       <c r="N179" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O179" t="s">
         <v>31</v>
@@ -9114,20 +6528,8 @@
       <c r="Q179" t="s">
         <v>32</v>
       </c>
-      <c r="S179" t="s">
-        <v>578</v>
-      </c>
-      <c r="T179" t="s">
-        <v>31</v>
-      </c>
-      <c r="U179">
-        <v>0</v>
-      </c>
-      <c r="V179" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="180" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="180" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I180" t="s">
         <v>201</v>
       </c>
@@ -9135,13 +6537,13 @@
         <v>31</v>
       </c>
       <c r="K180">
-        <v>0.99999999999984668</v>
+        <v>0.99999999999984834</v>
       </c>
       <c r="L180" t="s">
         <v>32</v>
       </c>
       <c r="N180" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O180" t="s">
         <v>31</v>
@@ -9152,20 +6554,8 @@
       <c r="Q180" t="s">
         <v>32</v>
       </c>
-      <c r="S180" t="s">
-        <v>579</v>
-      </c>
-      <c r="T180" t="s">
-        <v>31</v>
-      </c>
-      <c r="U180">
-        <v>0</v>
-      </c>
-      <c r="V180" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="181" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I181" t="s">
         <v>202</v>
       </c>
@@ -9173,13 +6563,13 @@
         <v>31</v>
       </c>
       <c r="K181">
-        <v>0.99999999999984834</v>
+        <v>0.99999999999985512</v>
       </c>
       <c r="L181" t="s">
         <v>32</v>
       </c>
       <c r="N181" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O181" t="s">
         <v>31</v>
@@ -9190,20 +6580,8 @@
       <c r="Q181" t="s">
         <v>32</v>
       </c>
-      <c r="S181" t="s">
-        <v>580</v>
-      </c>
-      <c r="T181" t="s">
-        <v>31</v>
-      </c>
-      <c r="U181">
-        <v>0</v>
-      </c>
-      <c r="V181" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="182" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="182" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I182" t="s">
         <v>203</v>
       </c>
@@ -9211,13 +6589,13 @@
         <v>31</v>
       </c>
       <c r="K182">
-        <v>0.99999999999985512</v>
+        <v>0.99999999999984834</v>
       </c>
       <c r="L182" t="s">
         <v>32</v>
       </c>
       <c r="N182" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O182" t="s">
         <v>31</v>
@@ -9228,20 +6606,8 @@
       <c r="Q182" t="s">
         <v>32</v>
       </c>
-      <c r="S182" t="s">
-        <v>581</v>
-      </c>
-      <c r="T182" t="s">
-        <v>31</v>
-      </c>
-      <c r="U182">
-        <v>0</v>
-      </c>
-      <c r="V182" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="183" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="183" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I183" t="s">
         <v>204</v>
       </c>
@@ -9249,13 +6615,13 @@
         <v>31</v>
       </c>
       <c r="K183">
-        <v>0.99999999999984834</v>
+        <v>0.9999999999998439</v>
       </c>
       <c r="L183" t="s">
         <v>32</v>
       </c>
       <c r="N183" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O183" t="s">
         <v>31</v>
@@ -9266,20 +6632,8 @@
       <c r="Q183" t="s">
         <v>32</v>
       </c>
-      <c r="S183" t="s">
-        <v>582</v>
-      </c>
-      <c r="T183" t="s">
-        <v>31</v>
-      </c>
-      <c r="U183">
-        <v>0.99999999999982536</v>
-      </c>
-      <c r="V183" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="184" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="184" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I184" t="s">
         <v>205</v>
       </c>
@@ -9287,13 +6641,13 @@
         <v>31</v>
       </c>
       <c r="K184">
-        <v>0.9999999999998439</v>
+        <v>0.99999999999984301</v>
       </c>
       <c r="L184" t="s">
         <v>32</v>
       </c>
       <c r="N184" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O184" t="s">
         <v>31</v>
@@ -9304,20 +6658,8 @@
       <c r="Q184" t="s">
         <v>32</v>
       </c>
-      <c r="S184" t="s">
-        <v>583</v>
-      </c>
-      <c r="T184" t="s">
-        <v>31</v>
-      </c>
-      <c r="U184">
-        <v>0.99999999999982236</v>
-      </c>
-      <c r="V184" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="185" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="185" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I185" t="s">
         <v>206</v>
       </c>
@@ -9325,13 +6667,13 @@
         <v>31</v>
       </c>
       <c r="K185">
-        <v>0.99999999999984301</v>
+        <v>0.99999999999984068</v>
       </c>
       <c r="L185" t="s">
         <v>32</v>
       </c>
       <c r="N185" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O185" t="s">
         <v>31</v>
@@ -9342,20 +6684,8 @@
       <c r="Q185" t="s">
         <v>32</v>
       </c>
-      <c r="S185" t="s">
-        <v>584</v>
-      </c>
-      <c r="T185" t="s">
-        <v>31</v>
-      </c>
-      <c r="U185">
-        <v>0.99999999999981604</v>
-      </c>
-      <c r="V185" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="186" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="186" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I186" t="s">
         <v>207</v>
       </c>
@@ -9363,13 +6693,13 @@
         <v>31</v>
       </c>
       <c r="K186">
-        <v>0.99999999999984068</v>
+        <v>0.99999999999983391</v>
       </c>
       <c r="L186" t="s">
         <v>32</v>
       </c>
       <c r="N186" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O186" t="s">
         <v>31</v>
@@ -9380,20 +6710,8 @@
       <c r="Q186" t="s">
         <v>32</v>
       </c>
-      <c r="S186" t="s">
-        <v>585</v>
-      </c>
-      <c r="T186" t="s">
-        <v>31</v>
-      </c>
-      <c r="U186">
-        <v>0.99999999999979938</v>
-      </c>
-      <c r="V186" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="187" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="187" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I187" t="s">
         <v>208</v>
       </c>
@@ -9401,13 +6719,13 @@
         <v>31</v>
       </c>
       <c r="K187">
-        <v>0.99999999999983391</v>
+        <v>0.99999999999983524</v>
       </c>
       <c r="L187" t="s">
         <v>32</v>
       </c>
       <c r="N187" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O187" t="s">
         <v>31</v>
@@ -9418,20 +6736,8 @@
       <c r="Q187" t="s">
         <v>32</v>
       </c>
-      <c r="S187" t="s">
-        <v>586</v>
-      </c>
-      <c r="T187" t="s">
-        <v>31</v>
-      </c>
-      <c r="U187">
-        <v>0</v>
-      </c>
-      <c r="V187" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="188" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="188" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I188" t="s">
         <v>209</v>
       </c>
@@ -9439,13 +6745,13 @@
         <v>31</v>
       </c>
       <c r="K188">
-        <v>0.99999999999983524</v>
+        <v>0.99999999999984468</v>
       </c>
       <c r="L188" t="s">
         <v>32</v>
       </c>
       <c r="N188" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O188" t="s">
         <v>31</v>
@@ -9456,20 +6762,8 @@
       <c r="Q188" t="s">
         <v>32</v>
       </c>
-      <c r="S188" t="s">
-        <v>587</v>
-      </c>
-      <c r="T188" t="s">
-        <v>31</v>
-      </c>
-      <c r="U188">
-        <v>0</v>
-      </c>
-      <c r="V188" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="189" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="189" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I189" t="s">
         <v>210</v>
       </c>
@@ -9477,13 +6771,13 @@
         <v>31</v>
       </c>
       <c r="K189">
-        <v>0.99999999999984468</v>
+        <v>0.99999999999983769</v>
       </c>
       <c r="L189" t="s">
         <v>32</v>
       </c>
       <c r="N189" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O189" t="s">
         <v>31</v>
@@ -9494,20 +6788,8 @@
       <c r="Q189" t="s">
         <v>32</v>
       </c>
-      <c r="S189" t="s">
-        <v>588</v>
-      </c>
-      <c r="T189" t="s">
-        <v>31</v>
-      </c>
-      <c r="U189">
-        <v>0.99999999999972367</v>
-      </c>
-      <c r="V189" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="190" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="190" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I190" t="s">
         <v>211</v>
       </c>
@@ -9515,13 +6797,13 @@
         <v>31</v>
       </c>
       <c r="K190">
-        <v>0.99999999999983769</v>
+        <v>0.99999999999984379</v>
       </c>
       <c r="L190" t="s">
         <v>32</v>
       </c>
       <c r="N190" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O190" t="s">
         <v>31</v>
@@ -9532,20 +6814,8 @@
       <c r="Q190" t="s">
         <v>32</v>
       </c>
-      <c r="S190" t="s">
-        <v>589</v>
-      </c>
-      <c r="T190" t="s">
-        <v>31</v>
-      </c>
-      <c r="U190">
-        <v>0</v>
-      </c>
-      <c r="V190" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="191" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="191" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I191" t="s">
         <v>212</v>
       </c>
@@ -9553,13 +6823,13 @@
         <v>31</v>
       </c>
       <c r="K191">
-        <v>0.99999999999984379</v>
+        <v>0.99999999999984412</v>
       </c>
       <c r="L191" t="s">
         <v>32</v>
       </c>
       <c r="N191" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O191" t="s">
         <v>31</v>
@@ -9570,20 +6840,8 @@
       <c r="Q191" t="s">
         <v>32</v>
       </c>
-      <c r="S191" t="s">
-        <v>590</v>
-      </c>
-      <c r="T191" t="s">
-        <v>31</v>
-      </c>
-      <c r="U191">
-        <v>0</v>
-      </c>
-      <c r="V191" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="192" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="192" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I192" t="s">
         <v>213</v>
       </c>
@@ -9591,13 +6849,13 @@
         <v>31</v>
       </c>
       <c r="K192">
-        <v>0.99999999999984412</v>
+        <v>0.99999999999984712</v>
       </c>
       <c r="L192" t="s">
         <v>32</v>
       </c>
       <c r="N192" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O192" t="s">
         <v>31</v>
@@ -9608,20 +6866,8 @@
       <c r="Q192" t="s">
         <v>32</v>
       </c>
-      <c r="S192" t="s">
-        <v>591</v>
-      </c>
-      <c r="T192" t="s">
-        <v>31</v>
-      </c>
-      <c r="U192">
-        <v>0</v>
-      </c>
-      <c r="V192" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="193" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="193" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I193" t="s">
         <v>214</v>
       </c>
@@ -9629,13 +6875,13 @@
         <v>31</v>
       </c>
       <c r="K193">
-        <v>0.99999999999984712</v>
+        <v>0.99999999999984601</v>
       </c>
       <c r="L193" t="s">
         <v>32</v>
       </c>
       <c r="N193" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O193" t="s">
         <v>31</v>
@@ -9646,20 +6892,8 @@
       <c r="Q193" t="s">
         <v>32</v>
       </c>
-      <c r="S193" t="s">
-        <v>592</v>
-      </c>
-      <c r="T193" t="s">
-        <v>31</v>
-      </c>
-      <c r="U193">
-        <v>0</v>
-      </c>
-      <c r="V193" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="194" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="194" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I194" t="s">
         <v>215</v>
       </c>
@@ -9667,13 +6901,13 @@
         <v>31</v>
       </c>
       <c r="K194">
-        <v>0.99999999999984601</v>
+        <v>0.99999999999984501</v>
       </c>
       <c r="L194" t="s">
         <v>32</v>
       </c>
       <c r="N194" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O194" t="s">
         <v>31</v>
@@ -9684,20 +6918,8 @@
       <c r="Q194" t="s">
         <v>32</v>
       </c>
-      <c r="S194" t="s">
-        <v>593</v>
-      </c>
-      <c r="T194" t="s">
-        <v>31</v>
-      </c>
-      <c r="U194">
-        <v>0</v>
-      </c>
-      <c r="V194" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="195" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="195" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I195" t="s">
         <v>216</v>
       </c>
@@ -9705,13 +6927,13 @@
         <v>31</v>
       </c>
       <c r="K195">
-        <v>0.99999999999984501</v>
+        <v>0.99999999999984757</v>
       </c>
       <c r="L195" t="s">
         <v>32</v>
       </c>
       <c r="N195" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O195" t="s">
         <v>31</v>
@@ -9722,20 +6944,8 @@
       <c r="Q195" t="s">
         <v>32</v>
       </c>
-      <c r="S195" t="s">
-        <v>594</v>
-      </c>
-      <c r="T195" t="s">
-        <v>31</v>
-      </c>
-      <c r="U195">
-        <v>0</v>
-      </c>
-      <c r="V195" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="196" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="196" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I196" t="s">
         <v>217</v>
       </c>
@@ -9743,13 +6953,13 @@
         <v>31</v>
       </c>
       <c r="K196">
-        <v>0.99999999999984757</v>
+        <v>0.99999999999984979</v>
       </c>
       <c r="L196" t="s">
         <v>32</v>
       </c>
       <c r="N196" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O196" t="s">
         <v>31</v>
@@ -9760,20 +6970,8 @@
       <c r="Q196" t="s">
         <v>32</v>
       </c>
-      <c r="S196" t="s">
-        <v>595</v>
-      </c>
-      <c r="T196" t="s">
-        <v>31</v>
-      </c>
-      <c r="U196">
-        <v>0</v>
-      </c>
-      <c r="V196" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="197" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="197" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I197" t="s">
         <v>218</v>
       </c>
@@ -9781,13 +6979,13 @@
         <v>31</v>
       </c>
       <c r="K197">
-        <v>0.99999999999984979</v>
+        <v>0.99999999999985001</v>
       </c>
       <c r="L197" t="s">
         <v>32</v>
       </c>
       <c r="N197" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O197" t="s">
         <v>31</v>
@@ -9798,20 +6996,8 @@
       <c r="Q197" t="s">
         <v>32</v>
       </c>
-      <c r="S197" t="s">
-        <v>596</v>
-      </c>
-      <c r="T197" t="s">
-        <v>31</v>
-      </c>
-      <c r="U197">
-        <v>0</v>
-      </c>
-      <c r="V197" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="198" spans="9:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="198" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I198" t="s">
         <v>219</v>
       </c>
@@ -9825,7 +7011,7 @@
         <v>32</v>
       </c>
       <c r="N198" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O198" t="s">
         <v>31</v>
@@ -9836,34 +7022,10 @@
       <c r="Q198" t="s">
         <v>32</v>
       </c>
-      <c r="S198" t="s">
-        <v>597</v>
-      </c>
-      <c r="T198" t="s">
-        <v>31</v>
-      </c>
-      <c r="U198">
-        <v>0</v>
-      </c>
-      <c r="V198" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="199" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I199" t="s">
-        <v>220</v>
-      </c>
-      <c r="J199" t="s">
-        <v>31</v>
-      </c>
-      <c r="K199">
-        <v>0.99999999999985001</v>
-      </c>
-      <c r="L199" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="199" spans="9:17" x14ac:dyDescent="0.45">
       <c r="N199" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O199" t="s">
         <v>31</v>
@@ -9872,18 +7034,6 @@
         <v>0.99999999999981981</v>
       </c>
       <c r="Q199" t="s">
-        <v>32</v>
-      </c>
-      <c r="S199" t="s">
-        <v>598</v>
-      </c>
-      <c r="T199" t="s">
-        <v>31</v>
-      </c>
-      <c r="U199">
-        <v>0</v>
-      </c>
-      <c r="V199" t="s">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6138C0-8EE9-44A9-978B-C2B6DA0D50C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D3D184-2FEE-43B0-9727-059A805211BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="458">
   <si>
     <t>UC_N</t>
   </si>
@@ -1267,6 +1267,120 @@
   </si>
   <si>
     <t>elc_won-DEU_0099</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0010</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0103</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0011</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0119</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0134</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0173</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0178</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0021</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0022</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0003</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0004</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0009</t>
   </si>
   <si>
     <t>g_yrfr</t>
@@ -1793,7 +1907,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1802,7 +1916,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -1810,7 +1924,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -1932,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E788BB4-1BD3-4C35-84C8-F345CCB3DB43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB26FA5-4262-4EAA-903B-C93F015C9938}">
   <dimension ref="A9:AM199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2029,7 +2143,7 @@
         <v>29</v>
       </c>
       <c r="X10" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="Y10" t="s">
         <v>28</v>
@@ -2056,16 +2170,16 @@
         <v>27</v>
       </c>
       <c r="AI10" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="AK10" t="s">
         <v>27</v>
       </c>
       <c r="AL10" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="AM10" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -2112,6 +2226,18 @@
       <c r="Q11" t="s">
         <v>32</v>
       </c>
+      <c r="S11" t="s">
+        <v>409</v>
+      </c>
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11">
+        <v>0.99999999999983902</v>
+      </c>
+      <c r="V11" t="s">
+        <v>32</v>
+      </c>
       <c r="X11">
         <v>1</v>
       </c>
@@ -2122,10 +2248,10 @@
         <v>31</v>
       </c>
       <c r="AA11" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="AC11" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="AD11" t="s">
         <v>31</v>
@@ -2149,7 +2275,7 @@
         <v>1.1999999999999997</v>
       </c>
       <c r="AM11" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
@@ -2177,8 +2303,20 @@
       <c r="Q12" t="s">
         <v>32</v>
       </c>
+      <c r="S12" t="s">
+        <v>410</v>
+      </c>
+      <c r="T12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12">
+        <v>0.99999999999984879</v>
+      </c>
+      <c r="V12" t="s">
+        <v>32</v>
+      </c>
       <c r="AC12" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="AD12" t="s">
         <v>31</v>
@@ -2212,6 +2350,18 @@
       <c r="Q13" t="s">
         <v>32</v>
       </c>
+      <c r="S13" t="s">
+        <v>411</v>
+      </c>
+      <c r="T13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13">
+        <v>0.99999999999979927</v>
+      </c>
+      <c r="V13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
@@ -2238,6 +2388,18 @@
       <c r="Q14" t="s">
         <v>32</v>
       </c>
+      <c r="S14" t="s">
+        <v>412</v>
+      </c>
+      <c r="T14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14">
+        <v>0.99999999999981526</v>
+      </c>
+      <c r="V14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
@@ -2264,6 +2426,18 @@
       <c r="Q15" t="s">
         <v>32</v>
       </c>
+      <c r="S15" t="s">
+        <v>413</v>
+      </c>
+      <c r="T15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15">
+        <v>0.99999999999980727</v>
+      </c>
+      <c r="V15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
@@ -2290,8 +2464,20 @@
       <c r="Q16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S16" t="s">
+        <v>414</v>
+      </c>
+      <c r="T16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16">
+        <v>0.99999999999979006</v>
+      </c>
+      <c r="V16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
         <v>38</v>
       </c>
@@ -2316,8 +2502,20 @@
       <c r="Q17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S17" t="s">
+        <v>415</v>
+      </c>
+      <c r="T17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17">
+        <v>0.99999999999976497</v>
+      </c>
+      <c r="V17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
         <v>39</v>
       </c>
@@ -2342,8 +2540,20 @@
       <c r="Q18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S18" t="s">
+        <v>416</v>
+      </c>
+      <c r="T18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18">
+        <v>0.99999999999981304</v>
+      </c>
+      <c r="V18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
         <v>40</v>
       </c>
@@ -2368,8 +2578,20 @@
       <c r="Q19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S19" t="s">
+        <v>417</v>
+      </c>
+      <c r="T19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19">
+        <v>0.99999999999980649</v>
+      </c>
+      <c r="V19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
         <v>41</v>
       </c>
@@ -2394,8 +2616,20 @@
       <c r="Q20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S20" t="s">
+        <v>418</v>
+      </c>
+      <c r="T20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20">
+        <v>0.99999999999980005</v>
+      </c>
+      <c r="V20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
         <v>42</v>
       </c>
@@ -2420,8 +2654,20 @@
       <c r="Q21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S21" t="s">
+        <v>419</v>
+      </c>
+      <c r="T21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21">
+        <v>0.99999999999975642</v>
+      </c>
+      <c r="V21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
         <v>43</v>
       </c>
@@ -2446,8 +2692,20 @@
       <c r="Q22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S22" t="s">
+        <v>420</v>
+      </c>
+      <c r="T22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22">
+        <v>0.99999999999980649</v>
+      </c>
+      <c r="V22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
         <v>44</v>
       </c>
@@ -2472,8 +2730,20 @@
       <c r="Q23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S23" t="s">
+        <v>421</v>
+      </c>
+      <c r="T23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23">
+        <v>0.99999999999984301</v>
+      </c>
+      <c r="V23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
         <v>45</v>
       </c>
@@ -2498,8 +2768,20 @@
       <c r="Q24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S24" t="s">
+        <v>422</v>
+      </c>
+      <c r="T24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24">
+        <v>0.99999999999982259</v>
+      </c>
+      <c r="V24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
         <v>46</v>
       </c>
@@ -2524,8 +2806,20 @@
       <c r="Q25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S25" t="s">
+        <v>423</v>
+      </c>
+      <c r="T25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25">
+        <v>0.99999999999981948</v>
+      </c>
+      <c r="V25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
         <v>47</v>
       </c>
@@ -2550,8 +2844,20 @@
       <c r="Q26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S26" t="s">
+        <v>424</v>
+      </c>
+      <c r="T26" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26">
+        <v>0.99999999999969946</v>
+      </c>
+      <c r="V26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
         <v>48</v>
       </c>
@@ -2576,8 +2882,20 @@
       <c r="Q27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S27" t="s">
+        <v>425</v>
+      </c>
+      <c r="T27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27">
+        <v>0.99999999999967348</v>
+      </c>
+      <c r="V27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
         <v>49</v>
       </c>
@@ -2602,8 +2920,20 @@
       <c r="Q28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S28" t="s">
+        <v>426</v>
+      </c>
+      <c r="T28" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28">
+        <v>0.99999999999980438</v>
+      </c>
+      <c r="V28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
         <v>50</v>
       </c>
@@ -2628,8 +2958,20 @@
       <c r="Q29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S29" t="s">
+        <v>427</v>
+      </c>
+      <c r="T29" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29">
+        <v>0.99999999999978795</v>
+      </c>
+      <c r="V29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
         <v>51</v>
       </c>
@@ -2654,8 +2996,20 @@
       <c r="Q30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S30" t="s">
+        <v>428</v>
+      </c>
+      <c r="T30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30">
+        <v>0.99999999999970235</v>
+      </c>
+      <c r="V30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>52</v>
       </c>
@@ -2680,8 +3034,20 @@
       <c r="Q31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S31" t="s">
+        <v>429</v>
+      </c>
+      <c r="T31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31">
+        <v>0.99999999999983968</v>
+      </c>
+      <c r="V31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
         <v>53</v>
       </c>
@@ -2706,8 +3072,20 @@
       <c r="Q32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S32" t="s">
+        <v>430</v>
+      </c>
+      <c r="T32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32">
+        <v>0.99999999999977118</v>
+      </c>
+      <c r="V32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
         <v>54</v>
       </c>
@@ -2732,8 +3110,20 @@
       <c r="Q33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S33" t="s">
+        <v>431</v>
+      </c>
+      <c r="T33" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33">
+        <v>0.99999999999979095</v>
+      </c>
+      <c r="V33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
         <v>55</v>
       </c>
@@ -2758,8 +3148,20 @@
       <c r="Q34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S34" t="s">
+        <v>432</v>
+      </c>
+      <c r="T34" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34">
+        <v>0.99999999999980105</v>
+      </c>
+      <c r="V34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
         <v>56</v>
       </c>
@@ -2784,8 +3186,20 @@
       <c r="Q35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S35" t="s">
+        <v>433</v>
+      </c>
+      <c r="T35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35">
+        <v>0.999999999999716</v>
+      </c>
+      <c r="V35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
         <v>57</v>
       </c>
@@ -2810,8 +3224,20 @@
       <c r="Q36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S36" t="s">
+        <v>434</v>
+      </c>
+      <c r="T36" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36">
+        <v>0.99999999999984379</v>
+      </c>
+      <c r="V36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
         <v>58</v>
       </c>
@@ -2836,8 +3262,20 @@
       <c r="Q37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S37" t="s">
+        <v>435</v>
+      </c>
+      <c r="T37" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37">
+        <v>0.99999999999985256</v>
+      </c>
+      <c r="V37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
         <v>59</v>
       </c>
@@ -2862,8 +3300,20 @@
       <c r="Q38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S38" t="s">
+        <v>436</v>
+      </c>
+      <c r="T38" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38">
+        <v>0.999999999999864</v>
+      </c>
+      <c r="V38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
         <v>60</v>
       </c>
@@ -2888,8 +3338,20 @@
       <c r="Q39" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S39" t="s">
+        <v>437</v>
+      </c>
+      <c r="T39" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39">
+        <v>0.99999999999981837</v>
+      </c>
+      <c r="V39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
         <v>61</v>
       </c>
@@ -2914,8 +3376,20 @@
       <c r="Q40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S40" t="s">
+        <v>438</v>
+      </c>
+      <c r="T40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40">
+        <v>0.99999999999980704</v>
+      </c>
+      <c r="V40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
         <v>62</v>
       </c>
@@ -2940,8 +3414,20 @@
       <c r="Q41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S41" t="s">
+        <v>439</v>
+      </c>
+      <c r="T41" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41">
+        <v>0.9999999999997996</v>
+      </c>
+      <c r="V41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
         <v>63</v>
       </c>
@@ -2966,8 +3452,20 @@
       <c r="Q42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S42" t="s">
+        <v>440</v>
+      </c>
+      <c r="T42" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42">
+        <v>0.99999999999985567</v>
+      </c>
+      <c r="V42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I43" t="s">
         <v>64</v>
       </c>
@@ -2992,8 +3490,20 @@
       <c r="Q43" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S43" t="s">
+        <v>441</v>
+      </c>
+      <c r="T43" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43">
+        <v>0.99999999999980738</v>
+      </c>
+      <c r="V43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I44" t="s">
         <v>65</v>
       </c>
@@ -3018,8 +3528,20 @@
       <c r="Q44" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S44" t="s">
+        <v>442</v>
+      </c>
+      <c r="T44" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44">
+        <v>0.99999999999982536</v>
+      </c>
+      <c r="V44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I45" t="s">
         <v>66</v>
       </c>
@@ -3044,8 +3566,20 @@
       <c r="Q45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S45" t="s">
+        <v>443</v>
+      </c>
+      <c r="T45" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45">
+        <v>0.99999999999982236</v>
+      </c>
+      <c r="V45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
         <v>67</v>
       </c>
@@ -3070,8 +3604,20 @@
       <c r="Q46" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S46" t="s">
+        <v>444</v>
+      </c>
+      <c r="T46" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46">
+        <v>0.99999999999981604</v>
+      </c>
+      <c r="V46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I47" t="s">
         <v>68</v>
       </c>
@@ -3096,8 +3642,20 @@
       <c r="Q47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="S47" t="s">
+        <v>445</v>
+      </c>
+      <c r="T47" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47">
+        <v>0.99999999999979938</v>
+      </c>
+      <c r="V47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="9:22" x14ac:dyDescent="0.45">
       <c r="I48" t="s">
         <v>69</v>
       </c>
@@ -3120,6 +3678,18 @@
         <v>0.99999999999981881</v>
       </c>
       <c r="Q48" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" t="s">
+        <v>446</v>
+      </c>
+      <c r="T48" t="s">
+        <v>31</v>
+      </c>
+      <c r="U48">
+        <v>0.99999999999972367</v>
+      </c>
+      <c r="V48" t="s">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D3D184-2FEE-43B0-9727-059A805211BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABA9E88-4706-4B80-973A-CB22747EBACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2046,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB26FA5-4262-4EAA-903B-C93F015C9938}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753F84A0-BCFC-42BA-BC9F-F9403824E8FA}">
   <dimension ref="A9:AM199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
